--- a/BackTest/2019-10-26 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-26 BackTest HDAC.xlsx
@@ -451,17 +451,13 @@
         <v>34.71999999999997</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="K2" t="n">
-        <v>34.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>34.65999999999997</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>34.73999999999997</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>34.91999999999996</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>35</v>
-      </c>
-      <c r="K5" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>34.93999999999996</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>34.95999999999997</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>35</v>
-      </c>
-      <c r="K7" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -711,14 +667,8 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -746,22 +696,14 @@
         <v>35.05999999999996</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -789,22 +731,14 @@
         <v>35.01999999999996</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -832,22 +766,14 @@
         <v>34.95999999999996</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>35</v>
-      </c>
-      <c r="K11" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -875,22 +801,14 @@
         <v>34.99999999999996</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -918,22 +836,14 @@
         <v>34.95999999999996</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="K13" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -967,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1002,22 +906,14 @@
         <v>34.89999999999995</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1045,22 +941,14 @@
         <v>34.85999999999994</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1088,22 +976,14 @@
         <v>34.83999999999994</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1131,22 +1011,14 @@
         <v>34.89999999999994</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1180,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1221,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1262,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1303,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1344,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1385,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1426,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1467,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1508,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1549,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1590,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1631,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1672,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1713,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1754,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1795,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1836,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1877,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1918,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1959,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2000,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2041,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2082,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2123,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2164,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2205,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2246,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2287,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2328,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2369,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2410,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2451,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2492,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2533,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2574,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2615,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2656,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2691,20 +2341,18 @@
         <v>34.65999999999995</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>34.2</v>
+      </c>
       <c r="K56" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>34.2</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2732,20 +2380,18 @@
         <v>34.57999999999996</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>34.5</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>34.9</v>
+        <v>34.2</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M57" t="n">
@@ -2782,11 +2428,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>34.9</v>
+        <v>34.2</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -2825,13 +2471,9 @@
         <v>34.5</v>
       </c>
       <c r="K59" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>34.5</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2868,11 +2510,11 @@
         <v>34.5</v>
       </c>
       <c r="K60" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M60" t="n">
@@ -2908,14 +2550,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="K61" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M61" t="n">
@@ -2951,10 +2593,10 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="K62" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2994,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="K63" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3040,7 +2682,7 @@
         <v>35</v>
       </c>
       <c r="K64" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3074,14 +2716,16 @@
         <v>34.89999999999996</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>35</v>
+      </c>
       <c r="K65" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3122,7 +2766,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3156,14 +2800,16 @@
         <v>35.07999999999997</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>35.2</v>
+      </c>
       <c r="K67" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3204,7 +2850,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3245,7 +2891,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3286,7 +2932,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3327,7 +2973,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3368,7 +3014,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3409,7 +3055,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3450,7 +3096,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3491,7 +3137,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3532,7 +3178,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3573,7 +3219,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3614,7 +3260,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3655,7 +3301,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3696,7 +3342,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3737,7 +3383,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3778,7 +3424,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3819,7 +3465,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3860,7 +3506,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3901,7 +3547,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3942,7 +3588,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3983,7 +3629,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4024,7 +3670,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4065,7 +3711,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4106,7 +3752,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4147,7 +3793,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4188,7 +3834,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4229,7 +3875,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4270,7 +3916,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4311,7 +3957,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4352,7 +3998,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4393,7 +4039,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4434,7 +4080,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4475,7 +4121,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4516,7 +4162,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4557,7 +4203,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4598,7 +4244,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4639,7 +4285,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4680,7 +4326,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4721,7 +4367,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4762,7 +4408,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4803,7 +4449,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4844,7 +4490,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4885,7 +4531,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4926,7 +4572,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4967,7 +4613,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -5008,7 +4654,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5049,7 +4695,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5090,7 +4736,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5131,7 +4777,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5172,7 +4818,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5213,7 +4859,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5254,7 +4900,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5295,7 +4941,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5336,7 +4982,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5377,7 +5023,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5418,7 +5064,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5459,7 +5105,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5500,7 +5146,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5541,7 +5187,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5582,7 +5228,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5623,7 +5269,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5664,7 +5310,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5705,7 +5351,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5746,7 +5392,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5787,7 +5433,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5828,7 +5474,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5869,7 +5515,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5903,14 +5549,16 @@
         <v>34.83999999999996</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>34.9</v>
+      </c>
       <c r="K134" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5951,7 +5599,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5992,7 +5640,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -6033,7 +5681,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -6074,7 +5722,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -6115,7 +5763,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -6156,7 +5804,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -6197,7 +5845,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -6238,7 +5886,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -6279,7 +5927,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6320,7 +5968,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6361,7 +6009,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6395,16 +6043,14 @@
         <v>34.61999999999995</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>34.5</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6438,16 +6084,14 @@
         <v>34.55999999999995</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6481,16 +6125,14 @@
         <v>34.57999999999994</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6530,10 +6172,10 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="K149" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6567,16 +6209,14 @@
         <v>34.55999999999995</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6619,7 +6259,7 @@
         <v>34.6</v>
       </c>
       <c r="K151" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6653,16 +6293,14 @@
         <v>34.69999999999995</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>34.9</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6696,16 +6334,14 @@
         <v>34.69999999999995</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6739,16 +6375,14 @@
         <v>34.71999999999995</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>34.7</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6782,16 +6416,14 @@
         <v>34.75999999999995</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>34.8</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6825,16 +6457,14 @@
         <v>34.73999999999995</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>34.8</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6868,16 +6498,14 @@
         <v>34.73999999999995</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>34.9</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6911,16 +6539,14 @@
         <v>34.79999999999995</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>34.9</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6961,7 +6587,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -7002,7 +6628,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -7043,7 +6669,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -7084,7 +6710,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -7125,7 +6751,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -7166,7 +6792,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -7207,7 +6833,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -7248,7 +6874,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -7289,7 +6915,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -7330,7 +6956,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -7371,7 +6997,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -7412,7 +7038,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -7453,7 +7079,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -7494,7 +7120,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -7535,7 +7161,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -7576,7 +7202,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -7617,7 +7243,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -7658,7 +7284,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -7699,7 +7325,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -7740,7 +7366,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -7781,7 +7407,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -7822,7 +7448,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -7863,7 +7489,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -7904,7 +7530,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -7945,7 +7571,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -7986,7 +7612,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -8027,7 +7653,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -8068,7 +7694,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -8109,7 +7735,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -8150,7 +7776,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -8191,7 +7817,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -8232,7 +7858,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -8273,7 +7899,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -8314,7 +7940,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -8355,7 +7981,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -8396,7 +8022,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -8437,7 +8063,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -8478,7 +8104,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -8519,7 +8145,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -8560,7 +8186,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -8601,7 +8227,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -8642,7 +8268,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -8683,7 +8309,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -8724,7 +8350,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -8765,7 +8391,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -8806,7 +8432,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -8847,7 +8473,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -8888,7 +8514,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -8929,7 +8555,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -8970,7 +8596,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -9011,7 +8637,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -9052,7 +8678,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -9093,7 +8719,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -9134,7 +8760,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -9175,7 +8801,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -9216,7 +8842,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -9257,7 +8883,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -9298,7 +8924,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -9339,7 +8965,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -9380,7 +9006,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -9421,7 +9047,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -9462,7 +9088,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -9503,7 +9129,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -9544,7 +9170,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -9585,7 +9211,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -9626,7 +9252,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -9667,7 +9293,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -9708,7 +9334,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -9749,7 +9375,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -9790,7 +9416,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -9831,7 +9457,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -9872,7 +9498,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -9913,7 +9539,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -9954,7 +9580,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -9995,7 +9621,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -10036,7 +9662,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -10077,7 +9703,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -10118,7 +9744,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -10159,7 +9785,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -10200,7 +9826,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -10241,7 +9867,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -10282,7 +9908,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -10323,7 +9949,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -10360,19 +9986,19 @@
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>1</v>
+        <v>1.018188405797102</v>
       </c>
     </row>
     <row r="243">
@@ -10401,17 +10027,11 @@
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -10442,17 +10062,11 @@
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -10486,14 +10100,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -10527,14 +10135,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -10565,17 +10167,11 @@
         <v>0</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10606,17 +10202,11 @@
         <v>0</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10650,14 +10240,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10691,14 +10275,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10732,14 +10310,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10773,14 +10345,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10814,14 +10380,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10855,14 +10415,8 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10896,14 +10450,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10937,14 +10485,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10978,14 +10520,8 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -11019,14 +10555,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -11060,14 +10590,8 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -11101,14 +10625,8 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -11142,14 +10660,8 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -11183,14 +10695,8 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -11224,14 +10730,8 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -11265,14 +10765,8 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -11306,14 +10800,8 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -11347,14 +10835,8 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -11382,22 +10864,14 @@
         <v>34.77999999999995</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="K267" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -11431,14 +10905,8 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -11472,14 +10940,8 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -11513,14 +10975,8 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -11554,14 +11010,8 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-26 BackTest HDAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M271"/>
+  <dimension ref="A1:M272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>34.9</v>
+        <v>35.2</v>
       </c>
       <c r="C2" t="n">
-        <v>34.9</v>
+        <v>35.2</v>
       </c>
       <c r="D2" t="n">
-        <v>34.9</v>
+        <v>35.2</v>
       </c>
       <c r="E2" t="n">
-        <v>34.9</v>
+        <v>35.2</v>
       </c>
       <c r="F2" t="n">
-        <v>7745.2435</v>
+        <v>8000</v>
       </c>
       <c r="G2" t="n">
-        <v>34.71999999999997</v>
+        <v>33.95</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="C3" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="D3" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="E3" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="F3" t="n">
-        <v>1593</v>
+        <v>7745.2435</v>
       </c>
       <c r="G3" t="n">
-        <v>34.65999999999997</v>
+        <v>33.98</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C4" t="n">
         <v>34.7</v>
       </c>
       <c r="D4" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E4" t="n">
         <v>34.7</v>
       </c>
       <c r="F4" t="n">
-        <v>9096.034600000001</v>
+        <v>1593</v>
       </c>
       <c r="G4" t="n">
-        <v>34.73999999999997</v>
+        <v>34.00166666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,31 +538,35 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35</v>
+        <v>34.7</v>
       </c>
       <c r="C5" t="n">
-        <v>35.1</v>
+        <v>34.7</v>
       </c>
       <c r="D5" t="n">
-        <v>35.1</v>
+        <v>34.7</v>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>34.7</v>
       </c>
       <c r="F5" t="n">
-        <v>21335.1851</v>
+        <v>9096.034600000001</v>
       </c>
       <c r="G5" t="n">
-        <v>34.91999999999996</v>
+        <v>34.02333333333332</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>34.7</v>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -573,32 +577,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="D6" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="E6" t="n">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>21335.1851</v>
       </c>
       <c r="G6" t="n">
-        <v>34.93999999999996</v>
+        <v>34.05166666666665</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -608,32 +620,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="D7" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="E7" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="F7" t="n">
-        <v>27679.5661</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>34.95999999999997</v>
+        <v>34.08166666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -655,10 +675,10 @@
         <v>35</v>
       </c>
       <c r="F8" t="n">
-        <v>14125.5428</v>
+        <v>27679.5661</v>
       </c>
       <c r="G8" t="n">
-        <v>35.01999999999996</v>
+        <v>34.10666666666665</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,31 +698,35 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="C9" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="E9" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="F9" t="n">
-        <v>649.5661</v>
+        <v>14125.5428</v>
       </c>
       <c r="G9" t="n">
-        <v>35.05999999999996</v>
+        <v>34.13166666666665</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>35</v>
+      </c>
+      <c r="K9" t="n">
+        <v>35</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -725,10 +749,10 @@
         <v>34.9</v>
       </c>
       <c r="F10" t="n">
-        <v>1940.5198</v>
+        <v>649.5661</v>
       </c>
       <c r="G10" t="n">
-        <v>35.01999999999996</v>
+        <v>34.16166666666665</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -737,8 +761,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>35</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -748,22 +778,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="C11" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="D11" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="E11" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="F11" t="n">
-        <v>244.6</v>
+        <v>1940.5198</v>
       </c>
       <c r="G11" t="n">
-        <v>34.95999999999996</v>
+        <v>34.19333333333332</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -772,8 +802,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>35</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -783,22 +819,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="C12" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="D12" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="E12" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>244.6</v>
       </c>
       <c r="G12" t="n">
-        <v>34.99999999999996</v>
+        <v>34.21999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +854,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>34.9</v>
+        <v>35.2</v>
       </c>
       <c r="C13" t="n">
-        <v>34.8</v>
+        <v>35.2</v>
       </c>
       <c r="D13" t="n">
-        <v>34.9</v>
+        <v>35.2</v>
       </c>
       <c r="E13" t="n">
-        <v>34.8</v>
+        <v>35.2</v>
       </c>
       <c r="F13" t="n">
-        <v>19711.16</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>34.95999999999996</v>
+        <v>34.24833333333332</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +889,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="C14" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="D14" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="E14" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="F14" t="n">
-        <v>3571.4285</v>
+        <v>19711.16</v>
       </c>
       <c r="G14" t="n">
-        <v>34.91999999999995</v>
+        <v>34.26833333333332</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +924,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C15" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="D15" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E15" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="F15" t="n">
-        <v>661.0359999999999</v>
+        <v>3571.4285</v>
       </c>
       <c r="G15" t="n">
-        <v>34.89999999999995</v>
+        <v>34.28499999999999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +971,10 @@
         <v>34.8</v>
       </c>
       <c r="F16" t="n">
-        <v>17894.2382</v>
+        <v>661.0359999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>34.85999999999994</v>
+        <v>34.30499999999999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,31 +994,35 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>35.1</v>
+        <v>34.8</v>
       </c>
       <c r="C17" t="n">
-        <v>35.1</v>
+        <v>34.8</v>
       </c>
       <c r="D17" t="n">
-        <v>35.1</v>
+        <v>34.8</v>
       </c>
       <c r="E17" t="n">
-        <v>35.1</v>
+        <v>34.8</v>
       </c>
       <c r="F17" t="n">
-        <v>231.7079</v>
+        <v>17894.2382</v>
       </c>
       <c r="G17" t="n">
-        <v>34.83999999999994</v>
+        <v>34.325</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="K17" t="n">
+        <v>34.8</v>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
@@ -993,7 +1033,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>34.8</v>
+        <v>35.1</v>
       </c>
       <c r="C18" t="n">
         <v>35.1</v>
@@ -1002,23 +1042,31 @@
         <v>35.1</v>
       </c>
       <c r="E18" t="n">
-        <v>34.8</v>
+        <v>35.1</v>
       </c>
       <c r="F18" t="n">
-        <v>92.75</v>
+        <v>231.7079</v>
       </c>
       <c r="G18" t="n">
-        <v>34.89999999999994</v>
+        <v>34.34833333333334</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="K18" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1028,7 +1076,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>35.1</v>
+        <v>34.8</v>
       </c>
       <c r="C19" t="n">
         <v>35.1</v>
@@ -1037,13 +1085,13 @@
         <v>35.1</v>
       </c>
       <c r="E19" t="n">
-        <v>35.1</v>
+        <v>34.8</v>
       </c>
       <c r="F19" t="n">
-        <v>50</v>
+        <v>92.75</v>
       </c>
       <c r="G19" t="n">
-        <v>34.97999999999994</v>
+        <v>34.37166666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1052,8 +1100,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1063,22 +1117,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="C20" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D20" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="E20" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="F20" t="n">
-        <v>25901.8915</v>
+        <v>50</v>
       </c>
       <c r="G20" t="n">
-        <v>35.01999999999994</v>
+        <v>34.405</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1087,8 +1141,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1098,22 +1158,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="C21" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="D21" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="E21" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="F21" t="n">
-        <v>11651.1253</v>
+        <v>25901.8915</v>
       </c>
       <c r="G21" t="n">
-        <v>35.07999999999994</v>
+        <v>34.43166666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,8 +1182,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,22 +1199,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="C22" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D22" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="E22" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="F22" t="n">
-        <v>27.1195</v>
+        <v>11651.1253</v>
       </c>
       <c r="G22" t="n">
-        <v>35.05999999999994</v>
+        <v>34.45500000000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,8 +1223,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1168,22 +1240,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="C23" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="D23" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="E23" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="F23" t="n">
-        <v>48168.8747</v>
+        <v>27.1195</v>
       </c>
       <c r="G23" t="n">
-        <v>35.05999999999994</v>
+        <v>34.475</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,8 +1264,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,22 +1281,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="C24" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="D24" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="E24" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="F24" t="n">
-        <v>178.8664</v>
+        <v>48168.8747</v>
       </c>
       <c r="G24" t="n">
-        <v>35.07999999999994</v>
+        <v>34.49833333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,8 +1305,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,22 +1322,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="C25" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="D25" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="E25" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="F25" t="n">
-        <v>9600.141299999999</v>
+        <v>178.8664</v>
       </c>
       <c r="G25" t="n">
-        <v>35.09999999999994</v>
+        <v>34.525</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,8 +1346,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1273,22 +1363,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="C26" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="D26" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="E26" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="F26" t="n">
-        <v>7200</v>
+        <v>9600.141299999999</v>
       </c>
       <c r="G26" t="n">
-        <v>35.11999999999994</v>
+        <v>34.54666666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,8 +1387,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1320,10 +1416,10 @@
         <v>35.2</v>
       </c>
       <c r="F27" t="n">
-        <v>3400</v>
+        <v>7200</v>
       </c>
       <c r="G27" t="n">
-        <v>35.15999999999995</v>
+        <v>34.56999999999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,8 +1428,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1355,10 +1457,10 @@
         <v>35.2</v>
       </c>
       <c r="F28" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="G28" t="n">
-        <v>35.17999999999994</v>
+        <v>34.59333333333332</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,8 +1469,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1390,10 +1498,10 @@
         <v>35.2</v>
       </c>
       <c r="F29" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="G29" t="n">
-        <v>35.17999999999995</v>
+        <v>34.61999999999998</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,8 +1510,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,22 +1527,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="C30" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="D30" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="E30" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="F30" t="n">
-        <v>22734.4325</v>
+        <v>1500</v>
       </c>
       <c r="G30" t="n">
-        <v>35.17999999999995</v>
+        <v>34.64333333333331</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1437,8 +1551,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,22 +1568,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="C31" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="D31" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="E31" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="F31" t="n">
-        <v>125005.767</v>
+        <v>22734.4325</v>
       </c>
       <c r="G31" t="n">
-        <v>35.17999999999995</v>
+        <v>34.66833333333331</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,8 +1592,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1495,10 +1621,10 @@
         <v>35.2</v>
       </c>
       <c r="F32" t="n">
-        <v>94296.6966</v>
+        <v>125005.767</v>
       </c>
       <c r="G32" t="n">
-        <v>35.17999999999995</v>
+        <v>34.69166666666663</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,8 +1633,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1530,10 +1662,10 @@
         <v>35.2</v>
       </c>
       <c r="F33" t="n">
-        <v>10000</v>
+        <v>94296.6966</v>
       </c>
       <c r="G33" t="n">
-        <v>35.17999999999995</v>
+        <v>34.71499999999996</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,8 +1674,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,22 +1691,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="C34" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="D34" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="E34" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="F34" t="n">
-        <v>120.0821</v>
+        <v>10000</v>
       </c>
       <c r="G34" t="n">
-        <v>35.19999999999995</v>
+        <v>34.73833333333329</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,8 +1715,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1591,19 +1735,19 @@
         <v>35.3</v>
       </c>
       <c r="C35" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="D35" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="E35" t="n">
         <v>35.3</v>
       </c>
       <c r="F35" t="n">
-        <v>110801.8419</v>
+        <v>120.0821</v>
       </c>
       <c r="G35" t="n">
-        <v>35.27999999999996</v>
+        <v>34.76666666666663</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,8 +1756,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1773,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>35.6</v>
+        <v>35.3</v>
       </c>
       <c r="C36" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="D36" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="E36" t="n">
-        <v>35.6</v>
+        <v>35.3</v>
       </c>
       <c r="F36" t="n">
-        <v>107.4606</v>
+        <v>110801.8419</v>
       </c>
       <c r="G36" t="n">
-        <v>35.35999999999996</v>
+        <v>34.79499999999996</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,8 +1797,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1670,10 +1826,10 @@
         <v>35.6</v>
       </c>
       <c r="F37" t="n">
-        <v>4498.9887</v>
+        <v>107.4606</v>
       </c>
       <c r="G37" t="n">
-        <v>35.43999999999996</v>
+        <v>34.82499999999995</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,8 +1838,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,22 +1855,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>35.3</v>
+        <v>35.6</v>
       </c>
       <c r="C38" t="n">
-        <v>35.3</v>
+        <v>35.6</v>
       </c>
       <c r="D38" t="n">
-        <v>35.3</v>
+        <v>35.6</v>
       </c>
       <c r="E38" t="n">
-        <v>35.3</v>
+        <v>35.6</v>
       </c>
       <c r="F38" t="n">
-        <v>24660.1889</v>
+        <v>4498.9887</v>
       </c>
       <c r="G38" t="n">
-        <v>35.45999999999996</v>
+        <v>34.85333333333328</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1717,8 +1879,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1731,19 +1899,19 @@
         <v>35.3</v>
       </c>
       <c r="C39" t="n">
-        <v>34.9</v>
+        <v>35.3</v>
       </c>
       <c r="D39" t="n">
         <v>35.3</v>
       </c>
       <c r="E39" t="n">
-        <v>34.9</v>
+        <v>35.3</v>
       </c>
       <c r="F39" t="n">
-        <v>4037.2002</v>
+        <v>24660.1889</v>
       </c>
       <c r="G39" t="n">
-        <v>35.37999999999996</v>
+        <v>34.87666666666662</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,8 +1920,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1766,19 +1940,19 @@
         <v>35.3</v>
       </c>
       <c r="C40" t="n">
-        <v>35.3</v>
+        <v>34.9</v>
       </c>
       <c r="D40" t="n">
         <v>35.3</v>
       </c>
       <c r="E40" t="n">
-        <v>35.3</v>
+        <v>34.9</v>
       </c>
       <c r="F40" t="n">
-        <v>102.9546</v>
+        <v>4037.2002</v>
       </c>
       <c r="G40" t="n">
-        <v>35.33999999999996</v>
+        <v>34.89166666666662</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,8 +1961,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,22 +1978,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="C41" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="D41" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="E41" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="F41" t="n">
-        <v>4000</v>
+        <v>102.9546</v>
       </c>
       <c r="G41" t="n">
-        <v>35.21999999999996</v>
+        <v>34.91499999999996</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,8 +2002,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1836,19 +2022,19 @@
         <v>35</v>
       </c>
       <c r="C42" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="D42" t="n">
         <v>35</v>
       </c>
       <c r="E42" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="F42" t="n">
-        <v>16048.5323</v>
+        <v>4000</v>
       </c>
       <c r="G42" t="n">
-        <v>35.07999999999997</v>
+        <v>34.93333333333329</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1857,8 +2043,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1868,22 +2060,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="C43" t="n">
-        <v>35.1</v>
+        <v>34.9</v>
       </c>
       <c r="D43" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="E43" t="n">
-        <v>35.1</v>
+        <v>34.9</v>
       </c>
       <c r="F43" t="n">
-        <v>56.98</v>
+        <v>16048.5323</v>
       </c>
       <c r="G43" t="n">
-        <v>35.03999999999996</v>
+        <v>34.94666666666662</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1892,8 +2084,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1915,10 +2113,10 @@
         <v>35.1</v>
       </c>
       <c r="F44" t="n">
-        <v>46</v>
+        <v>56.98</v>
       </c>
       <c r="G44" t="n">
-        <v>35.07999999999996</v>
+        <v>34.96333333333329</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,8 +2125,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,7 +2142,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="C45" t="n">
         <v>35.1</v>
@@ -1947,13 +2151,13 @@
         <v>35.1</v>
       </c>
       <c r="E45" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="F45" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G45" t="n">
-        <v>35.03999999999996</v>
+        <v>34.97999999999995</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1962,8 +2166,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1976,19 +2186,19 @@
         <v>35</v>
       </c>
       <c r="C46" t="n">
-        <v>34.9</v>
+        <v>35.1</v>
       </c>
       <c r="D46" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="E46" t="n">
-        <v>34.5</v>
+        <v>35</v>
       </c>
       <c r="F46" t="n">
-        <v>64409.4957</v>
+        <v>61</v>
       </c>
       <c r="G46" t="n">
-        <v>35.01999999999997</v>
+        <v>35.00166666666662</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1997,8 +2207,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2224,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>34.5</v>
+        <v>35</v>
       </c>
       <c r="C47" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="D47" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="E47" t="n">
         <v>34.5</v>
       </c>
       <c r="F47" t="n">
-        <v>6809</v>
+        <v>64409.4957</v>
       </c>
       <c r="G47" t="n">
-        <v>34.97999999999997</v>
+        <v>35.01666666666662</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2032,8 +2248,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +2265,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>34.8</v>
+        <v>34.5</v>
       </c>
       <c r="C48" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="D48" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="E48" t="n">
-        <v>34.8</v>
+        <v>34.5</v>
       </c>
       <c r="F48" t="n">
-        <v>90</v>
+        <v>6809</v>
       </c>
       <c r="G48" t="n">
-        <v>34.91999999999997</v>
+        <v>35.02999999999995</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,8 +2289,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2081,19 +2309,19 @@
         <v>34.8</v>
       </c>
       <c r="C49" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="D49" t="n">
         <v>34.8</v>
       </c>
       <c r="E49" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="F49" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="G49" t="n">
-        <v>34.83999999999997</v>
+        <v>35.04499999999995</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,8 +2330,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2116,19 +2350,19 @@
         <v>34.8</v>
       </c>
       <c r="C50" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="D50" t="n">
         <v>34.8</v>
       </c>
       <c r="E50" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="F50" t="n">
-        <v>192.5833</v>
+        <v>40</v>
       </c>
       <c r="G50" t="n">
-        <v>34.77999999999997</v>
+        <v>35.05499999999995</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,8 +2371,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2160,10 +2400,10 @@
         <v>34.8</v>
       </c>
       <c r="F51" t="n">
-        <v>563.4167</v>
+        <v>192.5833</v>
       </c>
       <c r="G51" t="n">
-        <v>34.75999999999996</v>
+        <v>35.06666666666662</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,8 +2412,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,22 +2429,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="C52" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="D52" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="E52" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>563.4167</v>
       </c>
       <c r="G52" t="n">
-        <v>34.79999999999997</v>
+        <v>35.07666666666663</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,8 +2453,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2470,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="C53" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="D53" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="E53" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="F53" t="n">
-        <v>7339.9574</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>34.77999999999996</v>
+        <v>35.04666666666663</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,8 +2494,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2511,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C54" t="n">
         <v>34.7</v>
       </c>
       <c r="D54" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E54" t="n">
         <v>34.7</v>
       </c>
       <c r="F54" t="n">
-        <v>618.9957000000001</v>
+        <v>7339.9574</v>
       </c>
       <c r="G54" t="n">
-        <v>34.77999999999996</v>
+        <v>35.01499999999997</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,8 +2535,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2291,19 +2555,19 @@
         <v>34.7</v>
       </c>
       <c r="C55" t="n">
-        <v>34.2</v>
+        <v>34.7</v>
       </c>
       <c r="D55" t="n">
         <v>34.7</v>
       </c>
       <c r="E55" t="n">
-        <v>34.2</v>
+        <v>34.7</v>
       </c>
       <c r="F55" t="n">
-        <v>352736.1771</v>
+        <v>618.9957000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>34.65999999999995</v>
+        <v>35.0333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,8 +2576,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,36 +2593,38 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C56" t="n">
-        <v>34.8</v>
+        <v>34.2</v>
       </c>
       <c r="D56" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E56" t="n">
-        <v>34.8</v>
+        <v>34.2</v>
       </c>
       <c r="F56" t="n">
-        <v>40</v>
+        <v>352736.1771</v>
       </c>
       <c r="G56" t="n">
-        <v>34.65999999999995</v>
+        <v>35.00166666666663</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L56" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2362,22 +2634,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="C57" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="D57" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="E57" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="F57" t="n">
-        <v>555</v>
+        <v>40</v>
       </c>
       <c r="G57" t="n">
-        <v>34.57999999999996</v>
+        <v>34.99666666666663</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,11 +2659,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>34.2</v>
+        <v>34.8</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M57" t="n">
@@ -2415,10 +2687,10 @@
         <v>34.5</v>
       </c>
       <c r="F58" t="n">
-        <v>673.96</v>
+        <v>555</v>
       </c>
       <c r="G58" t="n">
-        <v>34.53999999999995</v>
+        <v>34.9833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,11 +2700,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>34.2</v>
+        <v>34.8</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -2456,24 +2728,26 @@
         <v>34.5</v>
       </c>
       <c r="F59" t="n">
-        <v>36</v>
+        <v>673.96</v>
       </c>
       <c r="G59" t="n">
-        <v>34.49999999999996</v>
+        <v>34.97499999999996</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>34.5</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L59" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2495,26 +2769,24 @@
         <v>34.5</v>
       </c>
       <c r="F60" t="n">
-        <v>338</v>
+        <v>36</v>
       </c>
       <c r="G60" t="n">
-        <v>34.55999999999996</v>
+        <v>34.97833333333329</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>34.5</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M60" t="n">
@@ -2526,38 +2798,36 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C61" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D61" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E61" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F61" t="n">
-        <v>558</v>
+        <v>338</v>
       </c>
       <c r="G61" t="n">
-        <v>34.51999999999996</v>
+        <v>34.9833333333333</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>34.5</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M61" t="n">
@@ -2569,34 +2839,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>34.8</v>
+        <v>34.4</v>
       </c>
       <c r="C62" t="n">
-        <v>34.9</v>
+        <v>34.6</v>
       </c>
       <c r="D62" t="n">
-        <v>34.9</v>
+        <v>34.6</v>
       </c>
       <c r="E62" t="n">
-        <v>34.8</v>
+        <v>34.4</v>
       </c>
       <c r="F62" t="n">
-        <v>20287.5898</v>
+        <v>558</v>
       </c>
       <c r="G62" t="n">
-        <v>34.59999999999996</v>
+        <v>34.97333333333329</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2612,34 +2880,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="C63" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="D63" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="E63" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="F63" t="n">
-        <v>32.6777</v>
+        <v>20287.5898</v>
       </c>
       <c r="G63" t="n">
-        <v>34.69999999999996</v>
+        <v>34.97333333333329</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>34.9</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2667,22 +2933,20 @@
         <v>35</v>
       </c>
       <c r="F64" t="n">
-        <v>20000</v>
+        <v>32.6777</v>
       </c>
       <c r="G64" t="n">
-        <v>34.79999999999996</v>
+        <v>34.9783333333333</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>35</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2710,22 +2974,20 @@
         <v>35</v>
       </c>
       <c r="F65" t="n">
-        <v>15317.6555</v>
+        <v>20000</v>
       </c>
       <c r="G65" t="n">
-        <v>34.89999999999996</v>
+        <v>34.98333333333331</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>35</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2741,22 +3003,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="C66" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="D66" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="E66" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="F66" t="n">
-        <v>39259.5053</v>
+        <v>15317.6555</v>
       </c>
       <c r="G66" t="n">
-        <v>35.01999999999997</v>
+        <v>34.98166666666664</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2766,7 +3028,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2782,7 +3044,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="C67" t="n">
         <v>35.2</v>
@@ -2791,25 +3053,23 @@
         <v>35.2</v>
       </c>
       <c r="E67" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="F67" t="n">
-        <v>10000</v>
+        <v>39259.5053</v>
       </c>
       <c r="G67" t="n">
-        <v>35.07999999999997</v>
+        <v>34.97999999999997</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>35.2</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -2837,10 +3097,10 @@
         <v>35.2</v>
       </c>
       <c r="F68" t="n">
-        <v>1720.3283</v>
+        <v>10000</v>
       </c>
       <c r="G68" t="n">
-        <v>35.11999999999997</v>
+        <v>34.9833333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,7 +3110,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -2866,22 +3126,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="C69" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="D69" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="E69" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="F69" t="n">
-        <v>532.5225</v>
+        <v>1720.3283</v>
       </c>
       <c r="G69" t="n">
-        <v>35.13999999999997</v>
+        <v>34.98666666666663</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2891,7 +3151,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -2907,22 +3167,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="C70" t="n">
-        <v>34.9</v>
+        <v>35.1</v>
       </c>
       <c r="D70" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="E70" t="n">
-        <v>34.9</v>
+        <v>35.1</v>
       </c>
       <c r="F70" t="n">
-        <v>47835.0384</v>
+        <v>532.5225</v>
       </c>
       <c r="G70" t="n">
-        <v>35.11999999999997</v>
+        <v>34.98999999999996</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2932,7 +3192,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -2948,22 +3208,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="C71" t="n">
         <v>34.9</v>
       </c>
       <c r="D71" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="E71" t="n">
         <v>34.9</v>
       </c>
       <c r="F71" t="n">
-        <v>52344</v>
+        <v>47835.0384</v>
       </c>
       <c r="G71" t="n">
-        <v>35.05999999999997</v>
+        <v>34.98999999999996</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2973,7 +3233,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3001,10 +3261,10 @@
         <v>34.9</v>
       </c>
       <c r="F72" t="n">
-        <v>5170.6659</v>
+        <v>52344</v>
       </c>
       <c r="G72" t="n">
-        <v>34.99999999999996</v>
+        <v>34.98833333333329</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3014,7 +3274,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3030,22 +3290,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>35.1</v>
+        <v>34.9</v>
       </c>
       <c r="C73" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="D73" t="n">
-        <v>35.1</v>
+        <v>34.9</v>
       </c>
       <c r="E73" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="F73" t="n">
-        <v>52968.7903</v>
+        <v>5170.6659</v>
       </c>
       <c r="G73" t="n">
-        <v>34.95999999999997</v>
+        <v>34.9833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3055,7 +3315,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3071,22 +3331,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="C74" t="n">
         <v>35</v>
       </c>
       <c r="D74" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="E74" t="n">
         <v>35</v>
       </c>
       <c r="F74" t="n">
-        <v>476.739</v>
+        <v>52968.7903</v>
       </c>
       <c r="G74" t="n">
-        <v>34.93999999999997</v>
+        <v>34.98666666666663</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3096,7 +3356,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3124,10 +3384,10 @@
         <v>35</v>
       </c>
       <c r="F75" t="n">
-        <v>23873.5277</v>
+        <v>476.739</v>
       </c>
       <c r="G75" t="n">
-        <v>34.95999999999997</v>
+        <v>34.99166666666663</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3137,7 +3397,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3165,10 +3425,10 @@
         <v>35</v>
       </c>
       <c r="F76" t="n">
-        <v>344046.3008</v>
+        <v>23873.5277</v>
       </c>
       <c r="G76" t="n">
-        <v>34.97999999999997</v>
+        <v>34.99499999999996</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3178,7 +3438,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3194,22 +3454,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="C77" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="D77" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="E77" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>344046.3008</v>
       </c>
       <c r="G77" t="n">
-        <v>35.03999999999997</v>
+        <v>34.99833333333329</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3219,7 +3479,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3235,22 +3495,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>34.9</v>
+        <v>35.2</v>
       </c>
       <c r="C78" t="n">
-        <v>34.9</v>
+        <v>35.2</v>
       </c>
       <c r="D78" t="n">
-        <v>34.9</v>
+        <v>35.2</v>
       </c>
       <c r="E78" t="n">
-        <v>34.9</v>
+        <v>35.2</v>
       </c>
       <c r="F78" t="n">
-        <v>7239.9685</v>
+        <v>10</v>
       </c>
       <c r="G78" t="n">
-        <v>35.01999999999997</v>
+        <v>34.99999999999996</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3260,7 +3520,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3276,22 +3536,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>35.1</v>
+        <v>34.9</v>
       </c>
       <c r="C79" t="n">
         <v>34.9</v>
       </c>
       <c r="D79" t="n">
-        <v>35.2</v>
+        <v>34.9</v>
       </c>
       <c r="E79" t="n">
         <v>34.9</v>
       </c>
       <c r="F79" t="n">
-        <v>15163.4569</v>
+        <v>7239.9685</v>
       </c>
       <c r="G79" t="n">
-        <v>34.99999999999997</v>
+        <v>34.99666666666663</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3301,7 +3561,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3317,22 +3577,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>34.9</v>
+        <v>35.1</v>
       </c>
       <c r="C80" t="n">
         <v>34.9</v>
       </c>
       <c r="D80" t="n">
-        <v>34.9</v>
+        <v>35.2</v>
       </c>
       <c r="E80" t="n">
         <v>34.9</v>
       </c>
       <c r="F80" t="n">
-        <v>21957.2077</v>
+        <v>15163.4569</v>
       </c>
       <c r="G80" t="n">
-        <v>34.97999999999998</v>
+        <v>34.9933333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3342,7 +3602,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3370,10 +3630,10 @@
         <v>34.9</v>
       </c>
       <c r="F81" t="n">
-        <v>20155.9813</v>
+        <v>21957.2077</v>
       </c>
       <c r="G81" t="n">
-        <v>34.95999999999997</v>
+        <v>34.99166666666663</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3383,7 +3643,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3399,22 +3659,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="C82" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="D82" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="E82" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="F82" t="n">
-        <v>544.1909000000001</v>
+        <v>20155.9813</v>
       </c>
       <c r="G82" t="n">
-        <v>34.87999999999997</v>
+        <v>34.9883333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3424,7 +3684,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3440,22 +3700,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="C83" t="n">
-        <v>35.3</v>
+        <v>34.8</v>
       </c>
       <c r="D83" t="n">
-        <v>35.3</v>
+        <v>34.8</v>
       </c>
       <c r="E83" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="F83" t="n">
-        <v>396298.4702</v>
+        <v>544.1909000000001</v>
       </c>
       <c r="G83" t="n">
-        <v>34.95999999999997</v>
+        <v>34.98499999999997</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3465,7 +3725,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3481,22 +3741,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="C84" t="n">
         <v>35.3</v>
       </c>
-      <c r="C84" t="n">
-        <v>35.4</v>
-      </c>
       <c r="D84" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="E84" t="n">
-        <v>35.3</v>
+        <v>34.9</v>
       </c>
       <c r="F84" t="n">
-        <v>7000</v>
+        <v>396298.4702</v>
       </c>
       <c r="G84" t="n">
-        <v>35.05999999999997</v>
+        <v>34.98833333333331</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3506,7 +3766,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3522,22 +3782,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="C85" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="D85" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="E85" t="n">
         <v>35.3</v>
       </c>
-      <c r="D85" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="E85" t="n">
-        <v>34.9</v>
-      </c>
       <c r="F85" t="n">
-        <v>25390.5393</v>
+        <v>7000</v>
       </c>
       <c r="G85" t="n">
-        <v>35.13999999999997</v>
+        <v>34.99166666666665</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3547,7 +3807,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3563,7 +3823,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="C86" t="n">
         <v>35.3</v>
@@ -3572,13 +3832,13 @@
         <v>35.3</v>
       </c>
       <c r="E86" t="n">
-        <v>35.2</v>
+        <v>34.9</v>
       </c>
       <c r="F86" t="n">
-        <v>2000</v>
+        <v>25390.5393</v>
       </c>
       <c r="G86" t="n">
-        <v>35.21999999999996</v>
+        <v>34.99499999999998</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3588,7 +3848,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3604,22 +3864,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>34.9</v>
+        <v>35.2</v>
       </c>
       <c r="C87" t="n">
-        <v>34.9</v>
+        <v>35.3</v>
       </c>
       <c r="D87" t="n">
-        <v>34.9</v>
+        <v>35.3</v>
       </c>
       <c r="E87" t="n">
-        <v>34.9</v>
+        <v>35.2</v>
       </c>
       <c r="F87" t="n">
-        <v>1814.0272</v>
+        <v>2000</v>
       </c>
       <c r="G87" t="n">
-        <v>35.23999999999997</v>
+        <v>34.99666666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3629,7 +3889,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3645,22 +3905,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>35.3</v>
+        <v>34.9</v>
       </c>
       <c r="C88" t="n">
-        <v>35.3</v>
+        <v>34.9</v>
       </c>
       <c r="D88" t="n">
-        <v>35.3</v>
+        <v>34.9</v>
       </c>
       <c r="E88" t="n">
-        <v>35.3</v>
+        <v>34.9</v>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>1814.0272</v>
       </c>
       <c r="G88" t="n">
-        <v>35.23999999999997</v>
+        <v>34.99166666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3670,7 +3930,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3686,22 +3946,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="C89" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="D89" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="E89" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="F89" t="n">
-        <v>20315.5386</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>35.15999999999996</v>
+        <v>34.99333333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3711,7 +3971,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3730,19 +3990,19 @@
         <v>35.1</v>
       </c>
       <c r="C90" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="D90" t="n">
         <v>35.1</v>
       </c>
       <c r="E90" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="F90" t="n">
-        <v>600</v>
+        <v>20315.5386</v>
       </c>
       <c r="G90" t="n">
-        <v>35.11999999999996</v>
+        <v>34.99</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3752,7 +4012,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3768,22 +4028,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="C91" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D91" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="E91" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="F91" t="n">
-        <v>29022.7051</v>
+        <v>600</v>
       </c>
       <c r="G91" t="n">
-        <v>35.05999999999996</v>
+        <v>34.99</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3793,7 +4053,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3809,22 +4069,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="C92" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="D92" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="E92" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="F92" t="n">
-        <v>30300.3903</v>
+        <v>29022.7051</v>
       </c>
       <c r="G92" t="n">
-        <v>35.09999999999995</v>
+        <v>34.98666666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3834,7 +4094,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3853,19 +4113,19 @@
         <v>35.1</v>
       </c>
       <c r="C93" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="D93" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="E93" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="F93" t="n">
-        <v>32989.5066</v>
+        <v>30300.3903</v>
       </c>
       <c r="G93" t="n">
-        <v>35.07999999999995</v>
+        <v>34.98500000000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3875,7 +4135,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -3891,10 +4151,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="C94" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="D94" t="n">
         <v>35.2</v>
@@ -3903,10 +4163,10 @@
         <v>35</v>
       </c>
       <c r="F94" t="n">
-        <v>42736.9979</v>
+        <v>32989.5066</v>
       </c>
       <c r="G94" t="n">
-        <v>35.07999999999995</v>
+        <v>34.98500000000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3916,7 +4176,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -3932,22 +4192,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="C95" t="n">
         <v>35</v>
       </c>
       <c r="D95" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="E95" t="n">
         <v>35</v>
       </c>
       <c r="F95" t="n">
-        <v>72494.5609</v>
+        <v>42736.9979</v>
       </c>
       <c r="G95" t="n">
-        <v>35.05999999999995</v>
+        <v>34.98</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3957,7 +4217,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -3976,19 +4236,19 @@
         <v>35.3</v>
       </c>
       <c r="C96" t="n">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="D96" t="n">
         <v>35.3</v>
       </c>
       <c r="E96" t="n">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="F96" t="n">
-        <v>22</v>
+        <v>72494.5609</v>
       </c>
       <c r="G96" t="n">
-        <v>35.11999999999995</v>
+        <v>34.97166666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3998,7 +4258,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4014,22 +4274,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="C97" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="D97" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="E97" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="F97" t="n">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="G97" t="n">
-        <v>35.11999999999995</v>
+        <v>34.96666666666668</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4039,7 +4299,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4067,10 +4327,10 @@
         <v>35.1</v>
       </c>
       <c r="F98" t="n">
-        <v>327</v>
+        <v>188</v>
       </c>
       <c r="G98" t="n">
-        <v>35.09999999999994</v>
+        <v>34.95833333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4080,7 +4340,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4108,10 +4368,10 @@
         <v>35.1</v>
       </c>
       <c r="F99" t="n">
-        <v>1577.4005</v>
+        <v>327</v>
       </c>
       <c r="G99" t="n">
-        <v>35.11999999999994</v>
+        <v>34.95500000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4121,7 +4381,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4149,10 +4409,10 @@
         <v>35.1</v>
       </c>
       <c r="F100" t="n">
-        <v>258.563</v>
+        <v>1577.4005</v>
       </c>
       <c r="G100" t="n">
-        <v>35.13999999999994</v>
+        <v>34.95833333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4162,7 +4422,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4178,22 +4438,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="C101" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="D101" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="E101" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>258.563</v>
       </c>
       <c r="G101" t="n">
-        <v>35.13999999999994</v>
+        <v>34.955</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4203,7 +4463,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4219,22 +4479,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="C102" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="D102" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="E102" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="F102" t="n">
-        <v>98165.8282</v>
+        <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>35.15999999999994</v>
+        <v>34.96</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4244,7 +4504,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4263,19 +4523,19 @@
         <v>35.2</v>
       </c>
       <c r="C103" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="D103" t="n">
         <v>35.2</v>
       </c>
       <c r="E103" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="F103" t="n">
-        <v>16124.2956</v>
+        <v>98165.8282</v>
       </c>
       <c r="G103" t="n">
-        <v>35.15999999999994</v>
+        <v>34.965</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4285,7 +4545,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4304,7 +4564,7 @@
         <v>35.2</v>
       </c>
       <c r="C104" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="D104" t="n">
         <v>35.2</v>
@@ -4313,10 +4573,10 @@
         <v>35.1</v>
       </c>
       <c r="F104" t="n">
-        <v>1308.1889</v>
+        <v>16124.2956</v>
       </c>
       <c r="G104" t="n">
-        <v>35.17999999999994</v>
+        <v>34.965</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4326,7 +4586,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4351,13 +4611,13 @@
         <v>35.2</v>
       </c>
       <c r="E105" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="F105" t="n">
-        <v>250</v>
+        <v>1308.1889</v>
       </c>
       <c r="G105" t="n">
-        <v>35.19999999999995</v>
+        <v>34.96666666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4367,7 +4627,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4386,19 +4646,19 @@
         <v>35.2</v>
       </c>
       <c r="C106" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="D106" t="n">
         <v>35.2</v>
       </c>
       <c r="E106" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="F106" t="n">
-        <v>70736.3771</v>
+        <v>250</v>
       </c>
       <c r="G106" t="n">
-        <v>35.15999999999995</v>
+        <v>34.96833333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4408,7 +4668,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4424,22 +4684,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="C107" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D107" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="E107" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="F107" t="n">
-        <v>76214.14999999999</v>
+        <v>70736.3771</v>
       </c>
       <c r="G107" t="n">
-        <v>35.11999999999995</v>
+        <v>34.97166666666666</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4449,7 +4709,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4477,10 +4737,10 @@
         <v>35</v>
       </c>
       <c r="F108" t="n">
-        <v>131015.0478</v>
+        <v>76214.14999999999</v>
       </c>
       <c r="G108" t="n">
-        <v>35.09999999999995</v>
+        <v>34.97666666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4490,7 +4750,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4506,22 +4766,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="C109" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="D109" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="E109" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="F109" t="n">
-        <v>7781</v>
+        <v>131015.0478</v>
       </c>
       <c r="G109" t="n">
-        <v>35.07999999999995</v>
+        <v>34.97999999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4531,7 +4791,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4547,22 +4807,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="C110" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="D110" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="E110" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="F110" t="n">
-        <v>23.5</v>
+        <v>7781</v>
       </c>
       <c r="G110" t="n">
-        <v>35.07999999999995</v>
+        <v>34.98666666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4572,7 +4832,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4588,7 +4848,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="C111" t="n">
         <v>35.2</v>
@@ -4597,13 +4857,13 @@
         <v>35.2</v>
       </c>
       <c r="E111" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="F111" t="n">
-        <v>57722.1446</v>
+        <v>23.5</v>
       </c>
       <c r="G111" t="n">
-        <v>35.09999999999995</v>
+        <v>34.99333333333332</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4613,7 +4873,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4629,10 +4889,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="C112" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="D112" t="n">
         <v>35.2</v>
@@ -4641,10 +4901,10 @@
         <v>35.1</v>
       </c>
       <c r="F112" t="n">
-        <v>54604.3986</v>
+        <v>57722.1446</v>
       </c>
       <c r="G112" t="n">
-        <v>35.11999999999995</v>
+        <v>34.99999999999998</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4654,7 +4914,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4670,22 +4930,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="C113" t="n">
         <v>35.1</v>
       </c>
       <c r="D113" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="E113" t="n">
         <v>35.1</v>
       </c>
       <c r="F113" t="n">
-        <v>99.75</v>
+        <v>54604.3986</v>
       </c>
       <c r="G113" t="n">
-        <v>35.13999999999994</v>
+        <v>35.00333333333331</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4695,7 +4955,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4711,22 +4971,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="C114" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="D114" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="E114" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="F114" t="n">
-        <v>18</v>
+        <v>99.75</v>
       </c>
       <c r="G114" t="n">
-        <v>35.15999999999995</v>
+        <v>35.00999999999998</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4736,7 +4996,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4764,10 +5024,10 @@
         <v>35.2</v>
       </c>
       <c r="F115" t="n">
-        <v>50274.9147</v>
+        <v>18</v>
       </c>
       <c r="G115" t="n">
-        <v>35.15999999999995</v>
+        <v>35.01833333333331</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4777,7 +5037,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4805,10 +5065,10 @@
         <v>35.2</v>
       </c>
       <c r="F116" t="n">
-        <v>33186.2606</v>
+        <v>50274.9147</v>
       </c>
       <c r="G116" t="n">
-        <v>35.15999999999995</v>
+        <v>35.03499999999998</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4818,7 +5078,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4834,7 +5094,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="C117" t="n">
         <v>35.2</v>
@@ -4843,13 +5103,13 @@
         <v>35.2</v>
       </c>
       <c r="E117" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="F117" t="n">
-        <v>184263.3179</v>
+        <v>33186.2606</v>
       </c>
       <c r="G117" t="n">
-        <v>35.17999999999996</v>
+        <v>35.04166666666664</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4859,7 +5119,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4875,22 +5135,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="C118" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="D118" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="E118" t="n">
         <v>35</v>
       </c>
       <c r="F118" t="n">
-        <v>202</v>
+        <v>184263.3179</v>
       </c>
       <c r="G118" t="n">
-        <v>35.15999999999995</v>
+        <v>35.0533333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4900,7 +5160,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4916,22 +5176,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="C119" t="n">
         <v>35</v>
       </c>
       <c r="D119" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="E119" t="n">
         <v>35</v>
       </c>
       <c r="F119" t="n">
-        <v>5010</v>
+        <v>202</v>
       </c>
       <c r="G119" t="n">
-        <v>35.11999999999996</v>
+        <v>35.06166666666663</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4941,7 +5201,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4960,19 +5220,19 @@
         <v>35.1</v>
       </c>
       <c r="C120" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="D120" t="n">
         <v>35.1</v>
       </c>
       <c r="E120" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="F120" t="n">
-        <v>70881.31050000001</v>
+        <v>5010</v>
       </c>
       <c r="G120" t="n">
-        <v>35.09999999999995</v>
+        <v>35.06999999999996</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4982,7 +5242,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5010,10 +5270,10 @@
         <v>35.1</v>
       </c>
       <c r="F121" t="n">
-        <v>32690.9115</v>
+        <v>70881.31050000001</v>
       </c>
       <c r="G121" t="n">
-        <v>35.07999999999995</v>
+        <v>35.07999999999996</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5023,7 +5283,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5051,10 +5311,10 @@
         <v>35.1</v>
       </c>
       <c r="F122" t="n">
-        <v>10</v>
+        <v>32690.9115</v>
       </c>
       <c r="G122" t="n">
-        <v>35.05999999999995</v>
+        <v>35.0883333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5064,7 +5324,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5080,22 +5340,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="C123" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D123" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="E123" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="F123" t="n">
-        <v>8399.5344</v>
+        <v>10</v>
       </c>
       <c r="G123" t="n">
-        <v>35.05999999999995</v>
+        <v>35.09166666666663</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5105,7 +5365,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5121,22 +5381,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="C124" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="D124" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="E124" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="F124" t="n">
-        <v>442.7038</v>
+        <v>8399.5344</v>
       </c>
       <c r="G124" t="n">
-        <v>35.01999999999995</v>
+        <v>35.09166666666663</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5146,7 +5406,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5165,19 +5425,19 @@
         <v>34.8</v>
       </c>
       <c r="C125" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="D125" t="n">
         <v>34.8</v>
       </c>
       <c r="E125" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="F125" t="n">
-        <v>50000</v>
+        <v>442.7038</v>
       </c>
       <c r="G125" t="n">
-        <v>34.91999999999994</v>
+        <v>35.0883333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5187,7 +5447,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5206,19 +5466,19 @@
         <v>34.8</v>
       </c>
       <c r="C126" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="D126" t="n">
         <v>34.8</v>
       </c>
       <c r="E126" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="F126" t="n">
-        <v>10</v>
+        <v>50000</v>
       </c>
       <c r="G126" t="n">
-        <v>34.85999999999995</v>
+        <v>35.08166666666663</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5228,7 +5488,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5244,22 +5504,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C127" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="D127" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E127" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="F127" t="n">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="G127" t="n">
-        <v>34.77999999999996</v>
+        <v>35.07499999999997</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5269,7 +5529,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5285,22 +5545,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C128" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="D128" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E128" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="F128" t="n">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="G128" t="n">
-        <v>34.73999999999995</v>
+        <v>35.06666666666663</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5310,7 +5570,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5329,19 +5589,19 @@
         <v>34.8</v>
       </c>
       <c r="C129" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="D129" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="E129" t="n">
         <v>34.8</v>
       </c>
       <c r="F129" t="n">
-        <v>423</v>
+        <v>10</v>
       </c>
       <c r="G129" t="n">
-        <v>34.75999999999996</v>
+        <v>35.05999999999997</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5351,7 +5611,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5367,22 +5627,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="C130" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="D130" t="n">
         <v>34.9</v>
       </c>
       <c r="E130" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="F130" t="n">
-        <v>15272.2935</v>
+        <v>423</v>
       </c>
       <c r="G130" t="n">
-        <v>34.77999999999996</v>
+        <v>35.05666666666664</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5392,7 +5652,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5411,19 +5671,19 @@
         <v>34.9</v>
       </c>
       <c r="C131" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="D131" t="n">
         <v>34.9</v>
       </c>
       <c r="E131" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="F131" t="n">
-        <v>10</v>
+        <v>15272.2935</v>
       </c>
       <c r="G131" t="n">
-        <v>34.79999999999995</v>
+        <v>35.05333333333331</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5433,7 +5693,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5449,22 +5709,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="C132" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="D132" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="E132" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="F132" t="n">
-        <v>20829.1072</v>
+        <v>10</v>
       </c>
       <c r="G132" t="n">
-        <v>34.79999999999995</v>
+        <v>35.05333333333331</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5474,7 +5734,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5490,22 +5750,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="C133" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="D133" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="E133" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="F133" t="n">
-        <v>10184.7038</v>
+        <v>20829.1072</v>
       </c>
       <c r="G133" t="n">
-        <v>34.81999999999996</v>
+        <v>35.04999999999997</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5515,7 +5775,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5531,34 +5791,32 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="C134" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="D134" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="E134" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="F134" t="n">
-        <v>24.0857</v>
+        <v>10184.7038</v>
       </c>
       <c r="G134" t="n">
-        <v>34.83999999999996</v>
+        <v>35.0483333333333</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>34.9</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5586,10 +5844,10 @@
         <v>35</v>
       </c>
       <c r="F135" t="n">
-        <v>25.7142</v>
+        <v>24.0857</v>
       </c>
       <c r="G135" t="n">
-        <v>34.89999999999996</v>
+        <v>35.0483333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5599,7 +5857,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5615,22 +5873,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="C136" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="D136" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="E136" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="F136" t="n">
-        <v>1531.9459</v>
+        <v>25.7142</v>
       </c>
       <c r="G136" t="n">
-        <v>34.89999999999996</v>
+        <v>35.0483333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5640,7 +5898,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5656,22 +5914,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="C137" t="n">
         <v>34.9</v>
       </c>
       <c r="D137" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="E137" t="n">
         <v>34.9</v>
       </c>
       <c r="F137" t="n">
-        <v>11632.9975</v>
+        <v>1531.9459</v>
       </c>
       <c r="G137" t="n">
-        <v>34.93999999999996</v>
+        <v>35.04666666666664</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5681,7 +5939,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5697,22 +5955,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="C138" t="n">
         <v>34.9</v>
       </c>
       <c r="D138" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="E138" t="n">
         <v>34.9</v>
       </c>
       <c r="F138" t="n">
-        <v>1656.4817</v>
+        <v>11632.9975</v>
       </c>
       <c r="G138" t="n">
-        <v>34.93999999999996</v>
+        <v>35.04166666666664</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5722,7 +5980,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5738,7 +5996,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="C139" t="n">
         <v>34.9</v>
@@ -5747,13 +6005,13 @@
         <v>34.9</v>
       </c>
       <c r="E139" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="F139" t="n">
-        <v>40000</v>
+        <v>1656.4817</v>
       </c>
       <c r="G139" t="n">
-        <v>34.91999999999995</v>
+        <v>35.04166666666664</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5763,7 +6021,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5779,7 +6037,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="C140" t="n">
         <v>34.9</v>
@@ -5788,13 +6046,13 @@
         <v>34.9</v>
       </c>
       <c r="E140" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="F140" t="n">
-        <v>23899</v>
+        <v>40000</v>
       </c>
       <c r="G140" t="n">
-        <v>34.89999999999996</v>
+        <v>35.04166666666664</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5804,7 +6062,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5820,22 +6078,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="C141" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="D141" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="E141" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="F141" t="n">
-        <v>408</v>
+        <v>23899</v>
       </c>
       <c r="G141" t="n">
-        <v>34.87999999999995</v>
+        <v>35.04166666666664</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5845,7 +6103,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5864,19 +6122,19 @@
         <v>34.8</v>
       </c>
       <c r="C142" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="D142" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="E142" t="n">
         <v>34.8</v>
       </c>
       <c r="F142" t="n">
-        <v>2435</v>
+        <v>408</v>
       </c>
       <c r="G142" t="n">
-        <v>34.87999999999995</v>
+        <v>35.03999999999998</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5886,7 +6144,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5902,22 +6160,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C143" t="n">
-        <v>34.5</v>
+        <v>34.9</v>
       </c>
       <c r="D143" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="E143" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="F143" t="n">
-        <v>100000</v>
+        <v>2435</v>
       </c>
       <c r="G143" t="n">
-        <v>34.79999999999995</v>
+        <v>35.04166666666664</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5927,7 +6185,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5943,22 +6201,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="C144" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D144" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="E144" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F144" t="n">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="G144" t="n">
-        <v>34.73999999999995</v>
+        <v>35.02833333333331</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5968,7 +6226,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5984,7 +6242,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C145" t="n">
         <v>34.6</v>
@@ -5993,13 +6251,13 @@
         <v>34.6</v>
       </c>
       <c r="E145" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="F145" t="n">
-        <v>45.9</v>
+        <v>1000</v>
       </c>
       <c r="G145" t="n">
-        <v>34.67999999999995</v>
+        <v>35.01499999999997</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6009,7 +6267,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6028,19 +6286,19 @@
         <v>34.5</v>
       </c>
       <c r="C146" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D146" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E146" t="n">
         <v>34.5</v>
       </c>
       <c r="F146" t="n">
-        <v>11</v>
+        <v>45.9</v>
       </c>
       <c r="G146" t="n">
-        <v>34.61999999999995</v>
+        <v>35.0033333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6050,7 +6308,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6066,22 +6324,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C147" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D147" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E147" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F147" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G147" t="n">
-        <v>34.55999999999995</v>
+        <v>34.98999999999997</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6091,7 +6349,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6119,10 +6377,10 @@
         <v>34.6</v>
       </c>
       <c r="F148" t="n">
-        <v>25.5202</v>
+        <v>30</v>
       </c>
       <c r="G148" t="n">
-        <v>34.57999999999994</v>
+        <v>34.98499999999996</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6132,7 +6390,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6148,34 +6406,32 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C149" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D149" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E149" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="F149" t="n">
-        <v>38.9025</v>
+        <v>25.5202</v>
       </c>
       <c r="G149" t="n">
-        <v>34.55999999999995</v>
+        <v>34.97333333333329</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6191,22 +6447,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C150" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D150" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E150" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F150" t="n">
-        <v>10</v>
+        <v>38.9025</v>
       </c>
       <c r="G150" t="n">
-        <v>34.55999999999995</v>
+        <v>34.96499999999995</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6216,7 +6472,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6235,31 +6491,29 @@
         <v>34.6</v>
       </c>
       <c r="C151" t="n">
-        <v>34.9</v>
+        <v>34.6</v>
       </c>
       <c r="D151" t="n">
-        <v>34.9</v>
+        <v>34.6</v>
       </c>
       <c r="E151" t="n">
         <v>34.6</v>
       </c>
       <c r="F151" t="n">
-        <v>95605.41310000001</v>
+        <v>10</v>
       </c>
       <c r="G151" t="n">
-        <v>34.63999999999994</v>
+        <v>34.95666666666662</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6275,7 +6529,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>34.9</v>
+        <v>34.6</v>
       </c>
       <c r="C152" t="n">
         <v>34.9</v>
@@ -6284,13 +6538,13 @@
         <v>34.9</v>
       </c>
       <c r="E152" t="n">
-        <v>34.9</v>
+        <v>34.6</v>
       </c>
       <c r="F152" t="n">
-        <v>25</v>
+        <v>95605.41310000001</v>
       </c>
       <c r="G152" t="n">
-        <v>34.69999999999995</v>
+        <v>34.95499999999996</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6300,7 +6554,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6316,22 +6570,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>34.6</v>
+        <v>34.9</v>
       </c>
       <c r="C153" t="n">
-        <v>34.6</v>
+        <v>34.9</v>
       </c>
       <c r="D153" t="n">
-        <v>34.6</v>
+        <v>34.9</v>
       </c>
       <c r="E153" t="n">
-        <v>34.6</v>
+        <v>34.9</v>
       </c>
       <c r="F153" t="n">
-        <v>2000</v>
+        <v>25</v>
       </c>
       <c r="G153" t="n">
-        <v>34.69999999999995</v>
+        <v>34.95166666666663</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6341,7 +6595,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6357,22 +6611,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="C154" t="n">
         <v>34.6</v>
       </c>
       <c r="D154" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="E154" t="n">
         <v>34.6</v>
       </c>
       <c r="F154" t="n">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="G154" t="n">
-        <v>34.71999999999995</v>
+        <v>34.94166666666663</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6382,7 +6636,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6398,22 +6652,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C155" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="D155" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E155" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="F155" t="n">
-        <v>1160.0716</v>
+        <v>30000</v>
       </c>
       <c r="G155" t="n">
-        <v>34.75999999999995</v>
+        <v>34.93499999999996</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6423,7 +6677,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6451,10 +6705,10 @@
         <v>34.8</v>
       </c>
       <c r="F156" t="n">
-        <v>600</v>
+        <v>1160.0716</v>
       </c>
       <c r="G156" t="n">
-        <v>34.73999999999995</v>
+        <v>34.93166666666663</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6464,7 +6718,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6480,22 +6734,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="C157" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="D157" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="E157" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="F157" t="n">
-        <v>22082.9153</v>
+        <v>600</v>
       </c>
       <c r="G157" t="n">
-        <v>34.73999999999995</v>
+        <v>34.9233333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6505,7 +6759,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6533,10 +6787,10 @@
         <v>34.9</v>
       </c>
       <c r="F158" t="n">
-        <v>4797012.6201</v>
+        <v>22082.9153</v>
       </c>
       <c r="G158" t="n">
-        <v>34.79999999999995</v>
+        <v>34.91999999999997</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6546,7 +6800,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6574,10 +6828,10 @@
         <v>34.9</v>
       </c>
       <c r="F159" t="n">
-        <v>402711.1573</v>
+        <v>4797012.6201</v>
       </c>
       <c r="G159" t="n">
-        <v>34.85999999999995</v>
+        <v>34.91666666666664</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6587,7 +6841,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6615,10 +6869,10 @@
         <v>34.9</v>
       </c>
       <c r="F160" t="n">
-        <v>1907.8939</v>
+        <v>402711.1573</v>
       </c>
       <c r="G160" t="n">
-        <v>34.87999999999995</v>
+        <v>34.91333333333331</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6628,7 +6882,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6656,10 +6910,10 @@
         <v>34.9</v>
       </c>
       <c r="F161" t="n">
-        <v>918101.6384000001</v>
+        <v>1907.8939</v>
       </c>
       <c r="G161" t="n">
-        <v>34.89999999999996</v>
+        <v>34.90999999999998</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6669,7 +6923,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6685,22 +6939,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="C162" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="D162" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="E162" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="F162" t="n">
-        <v>3859.9834</v>
+        <v>918101.6384000001</v>
       </c>
       <c r="G162" t="n">
-        <v>34.87999999999995</v>
+        <v>34.90333333333331</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6710,7 +6964,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6738,10 +6992,10 @@
         <v>34.8</v>
       </c>
       <c r="F163" t="n">
-        <v>19971.5029</v>
+        <v>3859.9834</v>
       </c>
       <c r="G163" t="n">
-        <v>34.85999999999995</v>
+        <v>34.89666666666665</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6751,7 +7005,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6767,22 +7021,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="C164" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="D164" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="E164" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="F164" t="n">
-        <v>2671.0601</v>
+        <v>19971.5029</v>
       </c>
       <c r="G164" t="n">
-        <v>34.85999999999995</v>
+        <v>34.89166666666665</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6792,7 +7046,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6808,22 +7062,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="C165" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="D165" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="E165" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="F165" t="n">
-        <v>20000</v>
+        <v>2671.0601</v>
       </c>
       <c r="G165" t="n">
-        <v>34.83999999999995</v>
+        <v>34.88666666666666</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6833,7 +7087,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6849,22 +7103,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="C166" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="D166" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="E166" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="F166" t="n">
-        <v>10</v>
+        <v>20000</v>
       </c>
       <c r="G166" t="n">
-        <v>34.83999999999995</v>
+        <v>34.88</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6874,7 +7128,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6902,10 +7156,10 @@
         <v>34.9</v>
       </c>
       <c r="F167" t="n">
-        <v>10028.6532</v>
+        <v>10</v>
       </c>
       <c r="G167" t="n">
-        <v>34.85999999999994</v>
+        <v>34.87666666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6915,7 +7169,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6931,7 +7185,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="C168" t="n">
         <v>34.9</v>
@@ -6940,13 +7194,13 @@
         <v>34.9</v>
       </c>
       <c r="E168" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="F168" t="n">
-        <v>5551.4857</v>
+        <v>10028.6532</v>
       </c>
       <c r="G168" t="n">
-        <v>34.87999999999995</v>
+        <v>34.875</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6956,7 +7210,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6975,19 +7229,19 @@
         <v>34.8</v>
       </c>
       <c r="C169" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="D169" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="E169" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="F169" t="n">
-        <v>1133.0436</v>
+        <v>5551.4857</v>
       </c>
       <c r="G169" t="n">
-        <v>34.85999999999995</v>
+        <v>34.87333333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6997,7 +7251,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -7013,22 +7267,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="C170" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="D170" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="E170" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="F170" t="n">
-        <v>10</v>
+        <v>1133.0436</v>
       </c>
       <c r="G170" t="n">
-        <v>34.87999999999995</v>
+        <v>34.86833333333334</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -7038,7 +7292,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -7066,10 +7320,10 @@
         <v>34.9</v>
       </c>
       <c r="F171" t="n">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G171" t="n">
-        <v>34.87999999999995</v>
+        <v>34.86333333333334</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -7079,7 +7333,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -7107,10 +7361,10 @@
         <v>34.9</v>
       </c>
       <c r="F172" t="n">
-        <v>85.9598</v>
+        <v>133</v>
       </c>
       <c r="G172" t="n">
-        <v>34.87999999999995</v>
+        <v>34.85833333333335</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7120,7 +7374,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -7148,10 +7402,10 @@
         <v>34.9</v>
       </c>
       <c r="F173" t="n">
-        <v>1237.679</v>
+        <v>85.9598</v>
       </c>
       <c r="G173" t="n">
-        <v>34.87999999999995</v>
+        <v>34.85500000000002</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7161,7 +7415,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -7189,10 +7443,10 @@
         <v>34.9</v>
       </c>
       <c r="F174" t="n">
-        <v>25861.4525</v>
+        <v>1237.679</v>
       </c>
       <c r="G174" t="n">
-        <v>34.89999999999996</v>
+        <v>34.85166666666669</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7202,7 +7456,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -7230,10 +7484,10 @@
         <v>34.9</v>
       </c>
       <c r="F175" t="n">
-        <v>4810230.165</v>
+        <v>25861.4525</v>
       </c>
       <c r="G175" t="n">
-        <v>34.89999999999996</v>
+        <v>34.84666666666669</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7243,7 +7497,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -7271,10 +7525,10 @@
         <v>34.9</v>
       </c>
       <c r="F176" t="n">
-        <v>5806965.36</v>
+        <v>4810230.165</v>
       </c>
       <c r="G176" t="n">
-        <v>34.89999999999996</v>
+        <v>34.8416666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7284,7 +7538,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -7312,10 +7566,10 @@
         <v>34.9</v>
       </c>
       <c r="F177" t="n">
-        <v>639036.3125</v>
+        <v>5806965.36</v>
       </c>
       <c r="G177" t="n">
-        <v>34.89999999999996</v>
+        <v>34.8366666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7325,7 +7579,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -7353,10 +7607,10 @@
         <v>34.9</v>
       </c>
       <c r="F178" t="n">
-        <v>6759523.46</v>
+        <v>639036.3125</v>
       </c>
       <c r="G178" t="n">
-        <v>34.89999999999996</v>
+        <v>34.83166666666671</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7366,7 +7620,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -7394,10 +7648,10 @@
         <v>34.9</v>
       </c>
       <c r="F179" t="n">
-        <v>6839169.27</v>
+        <v>6759523.46</v>
       </c>
       <c r="G179" t="n">
-        <v>34.89999999999996</v>
+        <v>34.83000000000004</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7407,7 +7661,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -7435,28 +7689,28 @@
         <v>34.9</v>
       </c>
       <c r="F180" t="n">
-        <v>6912892.175</v>
+        <v>6839169.27</v>
       </c>
       <c r="G180" t="n">
-        <v>34.89999999999996</v>
+        <v>34.82833333333338</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>1</v>
+        <v>0.9978735632183909</v>
       </c>
     </row>
     <row r="181">
@@ -7476,26 +7730,20 @@
         <v>34.9</v>
       </c>
       <c r="F181" t="n">
-        <v>6992555.985</v>
+        <v>6912892.175</v>
       </c>
       <c r="G181" t="n">
-        <v>34.89999999999996</v>
+        <v>34.82500000000005</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7517,10 +7765,10 @@
         <v>34.9</v>
       </c>
       <c r="F182" t="n">
-        <v>6938435.6275</v>
+        <v>6992555.985</v>
       </c>
       <c r="G182" t="n">
-        <v>34.89999999999996</v>
+        <v>34.82166666666672</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7529,14 +7777,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7558,26 +7800,20 @@
         <v>34.9</v>
       </c>
       <c r="F183" t="n">
-        <v>6978276.5325</v>
+        <v>6938435.6275</v>
       </c>
       <c r="G183" t="n">
-        <v>34.89999999999996</v>
+        <v>34.81833333333338</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7602,7 +7838,7 @@
         <v>6978276.5325</v>
       </c>
       <c r="G184" t="n">
-        <v>34.89999999999996</v>
+        <v>34.81666666666672</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7611,14 +7847,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7640,26 +7870,20 @@
         <v>34.9</v>
       </c>
       <c r="F185" t="n">
-        <v>7054960.89</v>
+        <v>6978276.5325</v>
       </c>
       <c r="G185" t="n">
-        <v>34.89999999999996</v>
+        <v>34.81833333333338</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7684,7 +7908,7 @@
         <v>7054960.89</v>
       </c>
       <c r="G186" t="n">
-        <v>34.89999999999996</v>
+        <v>34.82333333333339</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7693,14 +7917,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7722,10 +7940,10 @@
         <v>34.9</v>
       </c>
       <c r="F187" t="n">
-        <v>6941443.08</v>
+        <v>7054960.89</v>
       </c>
       <c r="G187" t="n">
-        <v>34.89999999999996</v>
+        <v>34.82500000000005</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7734,14 +7952,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7763,10 +7975,10 @@
         <v>34.9</v>
       </c>
       <c r="F188" t="n">
-        <v>6927153.6275</v>
+        <v>6941443.08</v>
       </c>
       <c r="G188" t="n">
-        <v>34.89999999999996</v>
+        <v>34.82833333333339</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7775,14 +7987,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7804,10 +8010,10 @@
         <v>34.9</v>
       </c>
       <c r="F189" t="n">
-        <v>7015109.985</v>
+        <v>6927153.6275</v>
       </c>
       <c r="G189" t="n">
-        <v>34.89999999999996</v>
+        <v>34.83000000000006</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7816,14 +8022,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7845,10 +8045,10 @@
         <v>34.9</v>
       </c>
       <c r="F190" t="n">
-        <v>7018127.4375</v>
+        <v>7015109.985</v>
       </c>
       <c r="G190" t="n">
-        <v>34.89999999999996</v>
+        <v>34.83000000000006</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7857,14 +8057,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7886,10 +8080,10 @@
         <v>34.9</v>
       </c>
       <c r="F191" t="n">
-        <v>3104207.7525</v>
+        <v>7018127.4375</v>
       </c>
       <c r="G191" t="n">
-        <v>34.89999999999996</v>
+        <v>34.83333333333339</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7898,14 +8092,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7915,22 +8103,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="C192" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="D192" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="E192" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="F192" t="n">
-        <v>10</v>
+        <v>3104207.7525</v>
       </c>
       <c r="G192" t="n">
-        <v>34.91999999999995</v>
+        <v>34.83333333333339</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7939,14 +8127,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7956,22 +8138,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="C193" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="D193" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="E193" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="F193" t="n">
-        <v>16195.6408</v>
+        <v>10</v>
       </c>
       <c r="G193" t="n">
-        <v>34.91999999999995</v>
+        <v>34.8383333333334</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7980,14 +8162,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7997,22 +8173,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="C194" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="D194" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="E194" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="F194" t="n">
-        <v>10</v>
+        <v>16195.6408</v>
       </c>
       <c r="G194" t="n">
-        <v>34.93999999999996</v>
+        <v>34.8383333333334</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -8021,14 +8197,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8041,19 +8211,19 @@
         <v>35</v>
       </c>
       <c r="C195" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="D195" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="E195" t="n">
         <v>35</v>
       </c>
       <c r="F195" t="n">
-        <v>700</v>
+        <v>10</v>
       </c>
       <c r="G195" t="n">
-        <v>34.99999999999995</v>
+        <v>34.8383333333334</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -8062,14 +8232,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8079,7 +8243,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="C196" t="n">
         <v>35.2</v>
@@ -8088,13 +8252,13 @@
         <v>35.2</v>
       </c>
       <c r="E196" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="F196" t="n">
-        <v>2693.8352</v>
+        <v>700</v>
       </c>
       <c r="G196" t="n">
-        <v>35.05999999999995</v>
+        <v>34.84166666666673</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -8103,14 +8267,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8120,22 +8278,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="C197" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="D197" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="E197" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="F197" t="n">
-        <v>363</v>
+        <v>2693.8352</v>
       </c>
       <c r="G197" t="n">
-        <v>35.05999999999995</v>
+        <v>34.84666666666672</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -8144,14 +8302,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8173,10 +8325,10 @@
         <v>35</v>
       </c>
       <c r="F198" t="n">
-        <v>1518</v>
+        <v>363</v>
       </c>
       <c r="G198" t="n">
-        <v>35.07999999999995</v>
+        <v>34.84833333333339</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -8185,14 +8337,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8208,16 +8354,16 @@
         <v>35</v>
       </c>
       <c r="D199" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="E199" t="n">
         <v>35</v>
       </c>
       <c r="F199" t="n">
-        <v>682.7717</v>
+        <v>1518</v>
       </c>
       <c r="G199" t="n">
-        <v>35.07999999999995</v>
+        <v>34.85000000000005</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -8226,14 +8372,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8249,16 +8389,16 @@
         <v>35</v>
       </c>
       <c r="D200" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="E200" t="n">
         <v>35</v>
       </c>
       <c r="F200" t="n">
-        <v>158.9965</v>
+        <v>682.7717</v>
       </c>
       <c r="G200" t="n">
-        <v>35.03999999999995</v>
+        <v>34.85166666666672</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -8267,14 +8407,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8296,10 +8430,10 @@
         <v>35</v>
       </c>
       <c r="F201" t="n">
-        <v>341.6953</v>
+        <v>158.9965</v>
       </c>
       <c r="G201" t="n">
-        <v>34.99999999999996</v>
+        <v>34.85333333333338</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8308,14 +8442,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8337,10 +8465,10 @@
         <v>35</v>
       </c>
       <c r="F202" t="n">
-        <v>115.6696</v>
+        <v>341.6953</v>
       </c>
       <c r="G202" t="n">
-        <v>34.99999999999996</v>
+        <v>34.85666666666671</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8349,14 +8477,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8366,22 +8488,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="C203" t="n">
         <v>35</v>
       </c>
       <c r="D203" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="E203" t="n">
         <v>35</v>
       </c>
       <c r="F203" t="n">
-        <v>300.6552</v>
+        <v>115.6696</v>
       </c>
       <c r="G203" t="n">
-        <v>34.99999999999996</v>
+        <v>34.85833333333338</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8390,14 +8512,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8407,22 +8523,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="C204" t="n">
         <v>35</v>
       </c>
       <c r="D204" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="E204" t="n">
         <v>35</v>
       </c>
       <c r="F204" t="n">
-        <v>365.6946</v>
+        <v>300.6552</v>
       </c>
       <c r="G204" t="n">
-        <v>34.99999999999996</v>
+        <v>34.86666666666671</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8431,14 +8547,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8460,10 +8570,10 @@
         <v>35</v>
       </c>
       <c r="F205" t="n">
-        <v>115.6993</v>
+        <v>365.6946</v>
       </c>
       <c r="G205" t="n">
-        <v>34.99999999999996</v>
+        <v>34.87333333333338</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8472,14 +8582,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8489,22 +8593,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="C206" t="n">
         <v>35</v>
       </c>
       <c r="D206" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="E206" t="n">
         <v>35</v>
       </c>
       <c r="F206" t="n">
-        <v>122.5589</v>
+        <v>115.6993</v>
       </c>
       <c r="G206" t="n">
-        <v>34.99999999999996</v>
+        <v>34.88000000000005</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8513,14 +8617,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8542,10 +8640,10 @@
         <v>35</v>
       </c>
       <c r="F207" t="n">
-        <v>188.9685</v>
+        <v>122.5589</v>
       </c>
       <c r="G207" t="n">
-        <v>34.99999999999996</v>
+        <v>34.88833333333339</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8554,14 +8652,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8574,19 +8666,19 @@
         <v>35.1</v>
       </c>
       <c r="C208" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="D208" t="n">
         <v>35.1</v>
       </c>
       <c r="E208" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="F208" t="n">
-        <v>10</v>
+        <v>188.9685</v>
       </c>
       <c r="G208" t="n">
-        <v>35.01999999999995</v>
+        <v>34.89500000000005</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8595,14 +8687,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8612,7 +8698,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="C209" t="n">
         <v>35.1</v>
@@ -8621,13 +8707,13 @@
         <v>35.1</v>
       </c>
       <c r="E209" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="F209" t="n">
-        <v>122.6953</v>
+        <v>10</v>
       </c>
       <c r="G209" t="n">
-        <v>35.03999999999995</v>
+        <v>34.90333333333339</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8636,14 +8722,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8656,19 +8736,19 @@
         <v>35</v>
       </c>
       <c r="C210" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D210" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="E210" t="n">
         <v>35</v>
       </c>
       <c r="F210" t="n">
-        <v>115</v>
+        <v>122.6953</v>
       </c>
       <c r="G210" t="n">
-        <v>35.03999999999995</v>
+        <v>34.91333333333338</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8677,14 +8757,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8706,10 +8780,10 @@
         <v>35</v>
       </c>
       <c r="F211" t="n">
-        <v>17823.986</v>
+        <v>115</v>
       </c>
       <c r="G211" t="n">
-        <v>35.03999999999995</v>
+        <v>34.92000000000005</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8718,14 +8792,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8747,10 +8815,10 @@
         <v>35</v>
       </c>
       <c r="F212" t="n">
-        <v>17732.6091</v>
+        <v>17823.986</v>
       </c>
       <c r="G212" t="n">
-        <v>35.03999999999995</v>
+        <v>34.92166666666672</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8759,14 +8827,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8776,22 +8838,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="C213" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="D213" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="E213" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="F213" t="n">
-        <v>3074.1805</v>
+        <v>17732.6091</v>
       </c>
       <c r="G213" t="n">
-        <v>34.97999999999995</v>
+        <v>34.92333333333338</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8800,14 +8862,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8817,22 +8873,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="C214" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="D214" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="E214" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="F214" t="n">
-        <v>179.083</v>
+        <v>3074.1805</v>
       </c>
       <c r="G214" t="n">
-        <v>34.93999999999996</v>
+        <v>34.92666666666672</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8841,14 +8897,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8858,22 +8908,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="C215" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="D215" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="E215" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="F215" t="n">
-        <v>18</v>
+        <v>179.083</v>
       </c>
       <c r="G215" t="n">
-        <v>34.89999999999996</v>
+        <v>34.93166666666672</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8882,14 +8932,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8899,22 +8943,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="C216" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="D216" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="E216" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="F216" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G216" t="n">
-        <v>34.89999999999996</v>
+        <v>34.93166666666672</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8923,14 +8967,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8940,7 +8978,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="C217" t="n">
         <v>35</v>
@@ -8949,13 +8987,13 @@
         <v>35</v>
       </c>
       <c r="E217" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="F217" t="n">
-        <v>53000</v>
+        <v>10</v>
       </c>
       <c r="G217" t="n">
-        <v>34.89999999999996</v>
+        <v>34.93500000000005</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8964,14 +9002,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8981,22 +9013,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="C218" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="D218" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="E218" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="F218" t="n">
-        <v>1668.096</v>
+        <v>53000</v>
       </c>
       <c r="G218" t="n">
-        <v>34.91999999999996</v>
+        <v>34.93666666666672</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -9005,14 +9037,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9031,13 +9057,13 @@
         <v>34.9</v>
       </c>
       <c r="E219" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="F219" t="n">
-        <v>144.6958</v>
+        <v>1668.096</v>
       </c>
       <c r="G219" t="n">
-        <v>34.91999999999996</v>
+        <v>34.93666666666672</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -9046,14 +9072,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9066,19 +9086,19 @@
         <v>34.9</v>
       </c>
       <c r="C220" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="D220" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="E220" t="n">
         <v>34.9</v>
       </c>
       <c r="F220" t="n">
-        <v>335.4459</v>
+        <v>144.6958</v>
       </c>
       <c r="G220" t="n">
-        <v>34.95999999999996</v>
+        <v>34.93666666666672</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -9087,14 +9107,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9107,19 +9121,19 @@
         <v>34.9</v>
       </c>
       <c r="C221" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="D221" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="E221" t="n">
         <v>34.9</v>
       </c>
       <c r="F221" t="n">
-        <v>152.6958</v>
+        <v>335.4459</v>
       </c>
       <c r="G221" t="n">
-        <v>34.93999999999996</v>
+        <v>34.93833333333338</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -9128,14 +9142,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9148,19 +9156,19 @@
         <v>34.9</v>
       </c>
       <c r="C222" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="D222" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="E222" t="n">
         <v>34.9</v>
       </c>
       <c r="F222" t="n">
-        <v>555.6106</v>
+        <v>152.6958</v>
       </c>
       <c r="G222" t="n">
-        <v>34.93999999999996</v>
+        <v>34.93833333333338</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -9169,14 +9177,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9186,7 +9188,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="C223" t="n">
         <v>35</v>
@@ -9195,13 +9197,13 @@
         <v>35</v>
       </c>
       <c r="E223" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="F223" t="n">
-        <v>3525.9455</v>
+        <v>555.6106</v>
       </c>
       <c r="G223" t="n">
-        <v>34.95999999999996</v>
+        <v>34.94166666666671</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -9210,14 +9212,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9233,16 +9229,16 @@
         <v>35</v>
       </c>
       <c r="D224" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="E224" t="n">
         <v>35</v>
       </c>
       <c r="F224" t="n">
-        <v>5241.6674</v>
+        <v>3525.9455</v>
       </c>
       <c r="G224" t="n">
-        <v>34.97999999999995</v>
+        <v>34.94500000000004</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -9251,14 +9247,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9280,10 +9270,10 @@
         <v>35</v>
       </c>
       <c r="F225" t="n">
-        <v>1171.3547</v>
+        <v>5241.6674</v>
       </c>
       <c r="G225" t="n">
-        <v>34.97999999999995</v>
+        <v>34.94666666666671</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -9292,14 +9282,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9321,10 +9305,10 @@
         <v>35</v>
       </c>
       <c r="F226" t="n">
-        <v>2599.6845</v>
+        <v>1171.3547</v>
       </c>
       <c r="G226" t="n">
-        <v>34.99999999999996</v>
+        <v>34.95000000000004</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -9333,14 +9317,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9362,10 +9340,10 @@
         <v>35</v>
       </c>
       <c r="F227" t="n">
-        <v>1429.9716</v>
+        <v>2599.6845</v>
       </c>
       <c r="G227" t="n">
-        <v>34.99999999999996</v>
+        <v>34.9516666666667</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -9374,14 +9352,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9397,16 +9369,16 @@
         <v>35</v>
       </c>
       <c r="D228" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="E228" t="n">
         <v>35</v>
       </c>
       <c r="F228" t="n">
-        <v>1584.974</v>
+        <v>1429.9716</v>
       </c>
       <c r="G228" t="n">
-        <v>34.99999999999996</v>
+        <v>34.95333333333337</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -9415,14 +9387,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9444,10 +9410,10 @@
         <v>35</v>
       </c>
       <c r="F229" t="n">
-        <v>1333.6985</v>
+        <v>1584.974</v>
       </c>
       <c r="G229" t="n">
-        <v>34.99999999999996</v>
+        <v>34.95500000000003</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -9456,14 +9422,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9485,10 +9445,10 @@
         <v>35</v>
       </c>
       <c r="F230" t="n">
-        <v>288.3553</v>
+        <v>1333.6985</v>
       </c>
       <c r="G230" t="n">
-        <v>34.99999999999996</v>
+        <v>34.95833333333336</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -9497,14 +9457,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9526,10 +9480,10 @@
         <v>35</v>
       </c>
       <c r="F231" t="n">
-        <v>143.6985</v>
+        <v>288.3553</v>
       </c>
       <c r="G231" t="n">
-        <v>34.99999999999996</v>
+        <v>34.96000000000003</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9538,14 +9492,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9567,10 +9515,10 @@
         <v>35</v>
       </c>
       <c r="F232" t="n">
-        <v>115.9985</v>
+        <v>143.6985</v>
       </c>
       <c r="G232" t="n">
-        <v>34.99999999999996</v>
+        <v>34.96166666666669</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9579,14 +9527,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9608,10 +9550,10 @@
         <v>35</v>
       </c>
       <c r="F233" t="n">
-        <v>263.872</v>
+        <v>115.9985</v>
       </c>
       <c r="G233" t="n">
-        <v>34.99999999999996</v>
+        <v>34.96333333333336</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9620,14 +9562,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9649,10 +9585,10 @@
         <v>35</v>
       </c>
       <c r="F234" t="n">
-        <v>30</v>
+        <v>263.872</v>
       </c>
       <c r="G234" t="n">
-        <v>34.99999999999996</v>
+        <v>34.96500000000002</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9661,14 +9597,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9690,10 +9620,10 @@
         <v>35</v>
       </c>
       <c r="F235" t="n">
-        <v>115.9865</v>
+        <v>30</v>
       </c>
       <c r="G235" t="n">
-        <v>34.99999999999996</v>
+        <v>34.96666666666669</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9702,14 +9632,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9719,22 +9643,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="C236" t="n">
         <v>35</v>
       </c>
       <c r="D236" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="E236" t="n">
         <v>35</v>
       </c>
       <c r="F236" t="n">
-        <v>65271.6953</v>
+        <v>115.9865</v>
       </c>
       <c r="G236" t="n">
-        <v>34.99999999999996</v>
+        <v>34.96833333333336</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9743,14 +9667,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9760,22 +9678,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="C237" t="n">
         <v>35</v>
       </c>
       <c r="D237" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="E237" t="n">
         <v>35</v>
       </c>
       <c r="F237" t="n">
-        <v>680.6858</v>
+        <v>65271.6953</v>
       </c>
       <c r="G237" t="n">
-        <v>34.99999999999996</v>
+        <v>34.97000000000002</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9784,14 +9702,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9804,19 +9716,19 @@
         <v>35</v>
       </c>
       <c r="C238" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="D238" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="E238" t="n">
         <v>35</v>
       </c>
       <c r="F238" t="n">
-        <v>260836.8962</v>
+        <v>680.6858</v>
       </c>
       <c r="G238" t="n">
-        <v>35.03999999999995</v>
+        <v>34.97166666666669</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9825,14 +9737,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9842,22 +9748,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="C239" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="D239" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="E239" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="F239" t="n">
-        <v>1999.5416</v>
+        <v>260836.8962</v>
       </c>
       <c r="G239" t="n">
-        <v>35.09999999999995</v>
+        <v>34.97666666666668</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9866,14 +9772,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9883,22 +9783,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="C240" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="D240" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="E240" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="F240" t="n">
-        <v>2000</v>
+        <v>1999.5416</v>
       </c>
       <c r="G240" t="n">
-        <v>35.17999999999996</v>
+        <v>34.98333333333335</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9907,14 +9807,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9939,7 +9833,7 @@
         <v>2000</v>
       </c>
       <c r="G241" t="n">
-        <v>35.25999999999996</v>
+        <v>34.99166666666668</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9948,14 +9842,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9965,40 +9853,34 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="C242" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="D242" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="E242" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="F242" t="n">
-        <v>2334</v>
+        <v>2000</v>
       </c>
       <c r="G242" t="n">
-        <v>35.31999999999996</v>
+        <v>35.00000000000001</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
-        <v>1.018188405797102</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -10006,28 +9888,28 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="C243" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="D243" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="E243" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="F243" t="n">
-        <v>60000</v>
+        <v>2334</v>
       </c>
       <c r="G243" t="n">
-        <v>35.29999999999995</v>
+        <v>35.00666666666668</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
@@ -10041,28 +9923,28 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="C244" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="D244" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="E244" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="F244" t="n">
-        <v>10</v>
+        <v>60000</v>
       </c>
       <c r="G244" t="n">
-        <v>35.29999999999995</v>
+        <v>35.01000000000001</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
@@ -10088,10 +9970,10 @@
         <v>35.3</v>
       </c>
       <c r="F245" t="n">
-        <v>70727.0325</v>
+        <v>10</v>
       </c>
       <c r="G245" t="n">
-        <v>35.27999999999996</v>
+        <v>35.01666666666668</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -10123,16 +10005,16 @@
         <v>35.3</v>
       </c>
       <c r="F246" t="n">
-        <v>30</v>
+        <v>70727.0325</v>
       </c>
       <c r="G246" t="n">
-        <v>35.25999999999995</v>
+        <v>35.02333333333335</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
@@ -10146,22 +10028,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="C247" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="D247" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="E247" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="F247" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G247" t="n">
-        <v>35.23999999999995</v>
+        <v>35.03000000000002</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -10193,10 +10075,10 @@
         <v>35.2</v>
       </c>
       <c r="F248" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="G248" t="n">
-        <v>35.25999999999995</v>
+        <v>35.03500000000001</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -10228,10 +10110,10 @@
         <v>35.2</v>
       </c>
       <c r="F249" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G249" t="n">
-        <v>35.23999999999995</v>
+        <v>35.04000000000001</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -10251,22 +10133,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="C250" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="D250" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="E250" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="F250" t="n">
-        <v>9781.769200000001</v>
+        <v>30</v>
       </c>
       <c r="G250" t="n">
-        <v>35.19999999999995</v>
+        <v>35.045</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -10298,10 +10180,10 @@
         <v>35.1</v>
       </c>
       <c r="F251" t="n">
-        <v>296.7067</v>
+        <v>9781.769200000001</v>
       </c>
       <c r="G251" t="n">
-        <v>35.15999999999995</v>
+        <v>35.04833333333333</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -10333,10 +10215,10 @@
         <v>35.1</v>
       </c>
       <c r="F252" t="n">
-        <v>24951.5241</v>
+        <v>296.7067</v>
       </c>
       <c r="G252" t="n">
-        <v>35.13999999999995</v>
+        <v>35.05166666666666</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -10356,22 +10238,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="C253" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D253" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="E253" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="F253" t="n">
-        <v>244</v>
+        <v>24951.5241</v>
       </c>
       <c r="G253" t="n">
-        <v>35.09999999999995</v>
+        <v>35.05333333333333</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -10403,10 +10285,10 @@
         <v>35</v>
       </c>
       <c r="F254" t="n">
-        <v>37016.4576</v>
+        <v>244</v>
       </c>
       <c r="G254" t="n">
-        <v>35.05999999999996</v>
+        <v>35.05499999999999</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -10426,22 +10308,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="C255" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="D255" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="E255" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="F255" t="n">
-        <v>1159.0238</v>
+        <v>37016.4576</v>
       </c>
       <c r="G255" t="n">
-        <v>35.05999999999996</v>
+        <v>35.05499999999999</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -10461,22 +10343,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="C256" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D256" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="E256" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="F256" t="n">
-        <v>37615.014</v>
+        <v>1159.0238</v>
       </c>
       <c r="G256" t="n">
-        <v>35.03999999999996</v>
+        <v>35.05333333333333</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -10496,22 +10378,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="C257" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="D257" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="E257" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="F257" t="n">
-        <v>30734.6532</v>
+        <v>37615.014</v>
       </c>
       <c r="G257" t="n">
-        <v>34.99999999999996</v>
+        <v>35.05</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -10531,22 +10413,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="C258" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="D258" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="E258" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="F258" t="n">
-        <v>38755</v>
+        <v>30734.6532</v>
       </c>
       <c r="G258" t="n">
-        <v>34.95999999999996</v>
+        <v>35.04833333333333</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -10569,19 +10451,19 @@
         <v>34.8</v>
       </c>
       <c r="C259" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="D259" t="n">
         <v>34.8</v>
       </c>
       <c r="E259" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="F259" t="n">
-        <v>87798.76300000001</v>
+        <v>38755</v>
       </c>
       <c r="G259" t="n">
-        <v>34.89999999999996</v>
+        <v>35.045</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -10601,22 +10483,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C260" t="n">
         <v>34.7</v>
       </c>
       <c r="D260" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E260" t="n">
         <v>34.7</v>
       </c>
       <c r="F260" t="n">
-        <v>78278.8968</v>
+        <v>87798.76300000001</v>
       </c>
       <c r="G260" t="n">
-        <v>34.81999999999995</v>
+        <v>35.04</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -10648,10 +10530,10 @@
         <v>34.7</v>
       </c>
       <c r="F261" t="n">
-        <v>23000</v>
+        <v>78278.8968</v>
       </c>
       <c r="G261" t="n">
-        <v>34.75999999999996</v>
+        <v>35.035</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -10671,22 +10553,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C262" t="n">
         <v>34.7</v>
       </c>
       <c r="D262" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E262" t="n">
         <v>34.7</v>
       </c>
       <c r="F262" t="n">
-        <v>8293.7405</v>
+        <v>23000</v>
       </c>
       <c r="G262" t="n">
-        <v>34.71999999999996</v>
+        <v>35.02999999999999</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -10706,22 +10588,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C263" t="n">
         <v>34.7</v>
       </c>
       <c r="D263" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E263" t="n">
         <v>34.7</v>
       </c>
       <c r="F263" t="n">
-        <v>13379.0968</v>
+        <v>8293.7405</v>
       </c>
       <c r="G263" t="n">
-        <v>34.69999999999995</v>
+        <v>35.02499999999999</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -10753,10 +10635,10 @@
         <v>34.7</v>
       </c>
       <c r="F264" t="n">
-        <v>10000</v>
+        <v>13379.0968</v>
       </c>
       <c r="G264" t="n">
-        <v>34.69999999999995</v>
+        <v>35.01999999999999</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10779,19 +10661,19 @@
         <v>34.7</v>
       </c>
       <c r="C265" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="D265" t="n">
         <v>34.7</v>
       </c>
       <c r="E265" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="F265" t="n">
-        <v>62864.3994</v>
+        <v>10000</v>
       </c>
       <c r="G265" t="n">
-        <v>34.67999999999995</v>
+        <v>35.01499999999999</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -10814,19 +10696,19 @@
         <v>34.7</v>
       </c>
       <c r="C266" t="n">
-        <v>34.9</v>
+        <v>34.6</v>
       </c>
       <c r="D266" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="E266" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="F266" t="n">
-        <v>8347.127500000001</v>
+        <v>62864.3994</v>
       </c>
       <c r="G266" t="n">
-        <v>34.71999999999995</v>
+        <v>35.00833333333332</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10846,22 +10728,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="C267" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="D267" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="E267" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="F267" t="n">
-        <v>2500</v>
+        <v>8347.127500000001</v>
       </c>
       <c r="G267" t="n">
-        <v>34.77999999999995</v>
+        <v>35.00666666666665</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10881,22 +10763,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="C268" t="n">
-        <v>34.7</v>
+        <v>35</v>
       </c>
       <c r="D268" t="n">
-        <v>34.7</v>
+        <v>35</v>
       </c>
       <c r="E268" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="F268" t="n">
-        <v>70000</v>
+        <v>2500</v>
       </c>
       <c r="G268" t="n">
-        <v>34.77999999999995</v>
+        <v>35.00666666666665</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10928,10 +10810,10 @@
         <v>34.7</v>
       </c>
       <c r="F269" t="n">
-        <v>11.4238</v>
+        <v>70000</v>
       </c>
       <c r="G269" t="n">
-        <v>34.77999999999995</v>
+        <v>34.99999999999999</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10963,10 +10845,10 @@
         <v>34.7</v>
       </c>
       <c r="F270" t="n">
-        <v>5622.9447</v>
+        <v>11.4238</v>
       </c>
       <c r="G270" t="n">
-        <v>34.79999999999995</v>
+        <v>34.99333333333332</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10986,22 +10868,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="C271" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="D271" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="E271" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="F271" t="n">
-        <v>10</v>
+        <v>5622.9447</v>
       </c>
       <c r="G271" t="n">
-        <v>34.79999999999995</v>
+        <v>34.98833333333332</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -11016,6 +10898,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="C272" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="D272" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="E272" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="F272" t="n">
+        <v>10</v>
+      </c>
+      <c r="G272" t="n">
+        <v>34.98666666666665</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-26 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-26 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N340"/>
+  <dimension ref="A1:M340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-154822.90840477</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-154822.90840477</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>33.4</v>
       </c>
       <c r="J3" t="n">
         <v>33.4</v>
       </c>
-      <c r="K3" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>-154822.90840477</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>33.4</v>
       </c>
       <c r="J4" t="n">
         <v>33.4</v>
       </c>
-      <c r="K4" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>-154289.90840477</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>33.4</v>
       </c>
       <c r="J5" t="n">
         <v>33.4</v>
       </c>
-      <c r="K5" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +603,23 @@
         <v>-154289.90840477</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="J6" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="K6" t="n">
         <v>33.4</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +644,23 @@
         <v>-154289.90840477</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="J7" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="K7" t="n">
         <v>33.4</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,26 +685,23 @@
         <v>-159250.58780477</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="J8" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="K8" t="n">
         <v>33.4</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -752,26 +726,23 @@
         <v>-274290.28460477</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>33.1</v>
       </c>
       <c r="J9" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="K9" t="n">
         <v>33.4</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -796,26 +767,23 @@
         <v>-273110.8282047699</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J10" t="n">
-        <v>33</v>
-      </c>
-      <c r="K10" t="n">
         <v>33.4</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -840,26 +808,23 @@
         <v>-272448.5069047699</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>33.4</v>
       </c>
       <c r="J11" t="n">
         <v>33.4</v>
       </c>
-      <c r="K11" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -884,26 +849,23 @@
         <v>-163349.8286899399</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="J12" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="K12" t="n">
         <v>33.4</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -928,26 +890,21 @@
         <v>-65221.37178993992</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="K13" t="n">
         <v>33.4</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -974,22 +931,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
         <v>33.4</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1014,24 +968,21 @@
         <v>-65280.47888993992</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
         <v>33.4</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1058,22 +1009,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
         <v>33.4</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1098,24 +1046,23 @@
         <v>-51518.47888993992</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="J17" t="n">
         <v>33.4</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1140,24 +1087,23 @@
         <v>-138369.4788899399</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="J18" t="n">
         <v>33.4</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1182,24 +1128,23 @@
         <v>-138208.8501899399</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="J19" t="n">
         <v>33.4</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1224,26 +1169,23 @@
         <v>-138198.8501899399</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>33.4</v>
       </c>
       <c r="J20" t="n">
         <v>33.4</v>
       </c>
-      <c r="K20" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1268,24 +1210,23 @@
         <v>-135164.8501899399</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="J21" t="n">
         <v>33.4</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1310,24 +1251,23 @@
         <v>-135379.3605756899</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J22" t="n">
         <v>33.4</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1352,24 +1292,23 @@
         <v>-135853.0849756899</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="J23" t="n">
         <v>33.4</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1394,24 +1333,23 @@
         <v>-85768.48447568994</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="J24" t="n">
         <v>33.4</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1436,24 +1374,23 @@
         <v>-85768.48447568994</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J25" t="n">
         <v>33.4</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1480,22 +1417,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
         <v>33.4</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1522,22 +1456,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
         <v>33.4</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1564,22 +1495,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
         <v>33.4</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1606,22 +1534,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
         <v>33.4</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1648,22 +1573,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
         <v>33.4</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1690,22 +1612,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
         <v>33.4</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1732,22 +1651,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
         <v>33.4</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1774,22 +1690,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
         <v>33.4</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1816,22 +1729,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
         <v>33.4</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1858,22 +1768,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
         <v>33.4</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1900,22 +1807,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
         <v>33.4</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1942,22 +1846,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
         <v>33.4</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1984,22 +1885,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
         <v>33.4</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2026,22 +1924,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
         <v>33.4</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2068,22 +1963,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
         <v>33.4</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2110,22 +2002,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
         <v>33.4</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2152,22 +2041,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
         <v>33.4</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2194,22 +2080,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
         <v>33.4</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2236,22 +2119,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
         <v>33.4</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2278,22 +2158,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
         <v>33.4</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2320,22 +2197,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
         <v>33.4</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2362,22 +2236,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
         <v>33.4</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2402,24 +2273,23 @@
         <v>-49701.93827568994</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="J48" t="n">
         <v>33.4</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2446,22 +2316,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
         <v>33.4</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2488,22 +2355,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
         <v>33.4</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2528,24 +2392,23 @@
         <v>578024.68086354</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J51" t="n">
         <v>33.4</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2572,22 +2435,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
         <v>33.4</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2614,58 +2474,60 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
         <v>33.4</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>554.016</v>
+      </c>
+      <c r="G54" t="n">
+        <v>395844.8026635401</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1.000988023952096</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="C54" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="D54" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="E54" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="F54" t="n">
-        <v>554.016</v>
-      </c>
-      <c r="G54" t="n">
-        <v>395844.8026635401</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1.075838323353294</v>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
-      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2692,16 +2554,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2728,16 +2587,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2762,18 +2618,15 @@
         <v>400754.8026635401</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2800,16 +2653,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2836,16 +2686,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2872,16 +2719,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2908,16 +2752,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2944,16 +2785,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2980,16 +2818,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3016,16 +2851,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3052,16 +2884,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3088,16 +2917,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3124,16 +2950,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3158,18 +2981,15 @@
         <v>376988.6773635401</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3194,18 +3014,15 @@
         <v>376988.6773635401</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3232,16 +3049,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3268,16 +3082,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3302,18 +3113,15 @@
         <v>357532.1173635401</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3340,16 +3148,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3376,16 +3181,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3412,16 +3214,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3448,16 +3247,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3484,16 +3280,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3520,16 +3313,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3556,16 +3346,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3592,16 +3379,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3628,16 +3412,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3664,16 +3445,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3700,16 +3478,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3736,16 +3511,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3772,16 +3544,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3808,16 +3577,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3844,16 +3610,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3880,16 +3643,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3916,16 +3676,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3952,16 +3709,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3988,16 +3742,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4024,16 +3775,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4060,16 +3808,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4096,16 +3841,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4132,16 +3874,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4168,16 +3907,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4204,16 +3940,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4240,16 +3973,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4274,18 +4004,15 @@
         <v>571229.4314635403</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4310,18 +4037,15 @@
         <v>567229.4314635403</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4348,16 +4072,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4384,16 +4105,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4420,16 +4138,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4456,16 +4171,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4492,16 +4204,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4528,16 +4237,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4564,16 +4270,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4600,16 +4303,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4636,16 +4336,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4672,16 +4369,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4706,18 +4400,15 @@
         <v>480271.9667635403</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4742,18 +4433,15 @@
         <v>472932.0093635403</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4778,18 +4466,15 @@
         <v>472932.0093635403</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4814,18 +4499,15 @@
         <v>120195.8322635404</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4850,18 +4532,15 @@
         <v>120235.8322635404</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4886,18 +4565,15 @@
         <v>119680.8322635404</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4922,18 +4598,15 @@
         <v>119680.8322635404</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4960,16 +4633,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4994,18 +4664,15 @@
         <v>119680.8322635404</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5032,16 +4699,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5066,18 +4730,15 @@
         <v>140526.4220635404</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5102,18 +4763,15 @@
         <v>140559.0997635404</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5138,18 +4796,15 @@
         <v>140559.0997635404</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5176,16 +4831,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5210,18 +4862,15 @@
         <v>179818.6050635404</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5248,16 +4897,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5284,16 +4930,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5318,18 +4961,15 @@
         <v>179286.0825635404</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5356,16 +4996,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5390,18 +5027,15 @@
         <v>131451.0441635404</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5426,18 +5060,15 @@
         <v>131451.0441635404</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5462,18 +5093,15 @@
         <v>184419.8344635404</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5500,16 +5128,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5536,16 +5161,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5570,18 +5192,15 @@
         <v>184419.8344635404</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5608,16 +5227,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5642,18 +5258,15 @@
         <v>177189.8659635404</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5678,18 +5291,15 @@
         <v>177189.8659635404</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5716,16 +5326,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5750,18 +5357,15 @@
         <v>177189.8659635404</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5786,18 +5390,15 @@
         <v>176645.6750635404</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5822,18 +5423,15 @@
         <v>572944.1452635403</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5858,18 +5456,15 @@
         <v>579944.1452635403</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5894,18 +5489,15 @@
         <v>554553.6059635404</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5930,18 +5522,15 @@
         <v>554553.6059635404</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5966,18 +5555,15 @@
         <v>552739.5787635404</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6002,18 +5588,15 @@
         <v>552749.5787635404</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6038,18 +5621,15 @@
         <v>532434.0401635404</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6074,18 +5654,15 @@
         <v>533034.0401635404</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6110,18 +5687,15 @@
         <v>504011.3350635404</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6146,18 +5720,15 @@
         <v>534311.7253635403</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6184,16 +5755,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6218,18 +5786,15 @@
         <v>524564.2340635404</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6256,16 +5821,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6290,18 +5852,15 @@
         <v>524586.2340635404</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6328,16 +5887,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6362,18 +5918,15 @@
         <v>524398.2340635404</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6398,18 +5951,15 @@
         <v>524398.2340635404</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6434,18 +5984,15 @@
         <v>524398.2340635404</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6470,18 +6017,15 @@
         <v>524408.2340635404</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6506,18 +6050,15 @@
         <v>426242.4058635404</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6542,18 +6083,15 @@
         <v>410118.1102635404</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6578,18 +6116,15 @@
         <v>411426.2991635404</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6616,16 +6151,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6652,16 +6184,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6688,16 +6217,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6724,16 +6250,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6760,16 +6283,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6794,18 +6314,15 @@
         <v>272280.2720635404</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6830,18 +6347,15 @@
         <v>272280.2720635404</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6866,18 +6380,15 @@
         <v>217675.8734635404</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6902,18 +6413,15 @@
         <v>217675.8734635404</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6938,18 +6446,15 @@
         <v>217693.8734635404</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6974,18 +6479,15 @@
         <v>217693.8734635404</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7010,18 +6512,15 @@
         <v>217693.8734635404</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7046,18 +6545,15 @@
         <v>217693.8734635404</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7084,16 +6580,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7120,16 +6613,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7156,16 +6646,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7190,18 +6677,15 @@
         <v>288373.1839635404</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7226,18 +6710,15 @@
         <v>288373.1839635404</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7262,18 +6743,15 @@
         <v>279973.6495635404</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7298,18 +6776,15 @@
         <v>279530.9457635404</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7334,18 +6809,15 @@
         <v>229530.9457635404</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7372,16 +6844,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7408,16 +6877,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7444,16 +6910,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7480,16 +6943,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7516,16 +6976,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7552,16 +7009,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7586,18 +7040,15 @@
         <v>193697.5450635404</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7622,18 +7073,15 @@
         <v>203882.2488635404</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7658,18 +7106,15 @@
         <v>203906.3345635404</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7694,18 +7139,15 @@
         <v>203906.3345635404</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7732,16 +7174,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>1</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7768,16 +7207,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>1</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7804,16 +7240,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>1</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7840,16 +7273,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7876,16 +7306,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>1</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7912,16 +7339,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>1</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7948,16 +7372,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7984,16 +7405,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8020,16 +7438,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8056,16 +7471,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8092,16 +7504,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8126,18 +7535,15 @@
         <v>105420.3886635404</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8162,18 +7568,15 @@
         <v>105420.3886635404</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8198,18 +7601,15 @@
         <v>105381.4861635404</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8234,18 +7634,15 @@
         <v>105391.4861635404</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8270,18 +7667,15 @@
         <v>200996.8992635404</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8306,18 +7700,15 @@
         <v>200996.8992635404</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8342,18 +7733,15 @@
         <v>198996.8992635404</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8378,18 +7766,15 @@
         <v>198996.8992635404</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8414,18 +7799,15 @@
         <v>200156.9708635404</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8450,18 +7832,15 @@
         <v>200156.9708635404</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8486,18 +7865,15 @@
         <v>222239.8861635404</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8522,18 +7898,15 @@
         <v>222239.8861635404</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8558,18 +7931,15 @@
         <v>222239.8861635404</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8596,16 +7966,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8632,16 +7999,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8668,16 +8032,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8704,16 +8065,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8740,16 +8098,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8776,16 +8131,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8812,16 +8164,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8848,16 +8197,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8884,16 +8230,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8920,16 +8263,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8956,16 +8296,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8992,16 +8329,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9028,16 +8362,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9064,16 +8395,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9098,18 +8426,15 @@
         <v>199937.9192635404</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9136,16 +8461,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9172,16 +8494,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>1</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9206,18 +8525,15 @@
         <v>199937.9192635404</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9242,18 +8558,15 @@
         <v>199937.9192635404</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9278,18 +8591,15 @@
         <v>199937.9192635404</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9314,18 +8624,15 @@
         <v>199937.9192635404</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9350,18 +8657,15 @@
         <v>199937.9192635404</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9388,16 +8692,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9424,16 +8725,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9460,16 +8758,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9496,16 +8791,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9532,16 +8824,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9568,16 +8857,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9604,16 +8890,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9640,16 +8923,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9676,16 +8956,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9712,16 +8989,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>1</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9748,16 +9022,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9784,16 +9055,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9820,16 +9088,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9856,16 +9121,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9892,16 +9154,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9928,16 +9187,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9964,16 +9220,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10000,16 +9253,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10036,16 +9286,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10072,16 +9319,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10108,16 +9352,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10144,16 +9385,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10180,16 +9418,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10216,16 +9451,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10252,16 +9484,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10288,16 +9517,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10324,16 +9550,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10360,16 +9583,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>1</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10396,16 +9616,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10432,16 +9649,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10468,16 +9682,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10504,16 +9715,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10540,16 +9748,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10576,16 +9781,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10612,16 +9814,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10648,16 +9847,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10684,16 +9880,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10720,16 +9913,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10756,16 +9946,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10792,16 +9979,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10828,16 +10012,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10864,16 +10045,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10900,16 +10078,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10936,16 +10111,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10972,16 +10144,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11008,16 +10177,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11044,16 +10210,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11080,16 +10243,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11116,16 +10276,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11150,18 +10307,15 @@
         <v>180161.4456635404</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11186,18 +10340,15 @@
         <v>180161.4456635404</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11224,16 +10375,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11258,18 +10406,15 @@
         <v>180161.4456635404</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11294,18 +10439,15 @@
         <v>180161.4456635404</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11330,18 +10472,15 @@
         <v>180161.4456635404</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11366,18 +10505,15 @@
         <v>180161.4456635404</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11402,18 +10538,15 @@
         <v>440998.3418635405</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11438,18 +10571,15 @@
         <v>442997.8834635405</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11474,18 +10604,15 @@
         <v>444997.8834635405</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11510,18 +10637,15 @@
         <v>444997.8834635405</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11546,18 +10670,15 @@
         <v>442663.8834635405</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11582,18 +10703,15 @@
         <v>382663.8834635405</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11618,18 +10736,15 @@
         <v>382673.8834635405</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11654,18 +10769,15 @@
         <v>382673.8834635405</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11690,18 +10802,15 @@
         <v>382673.8834635405</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11726,18 +10835,15 @@
         <v>382613.8834635405</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11762,18 +10868,15 @@
         <v>382613.8834635405</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11798,18 +10901,15 @@
         <v>382613.8834635405</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11834,18 +10934,15 @@
         <v>372832.1142635405</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11870,18 +10967,15 @@
         <v>372832.1142635405</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11906,18 +11000,15 @@
         <v>372832.1142635405</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11942,18 +11033,15 @@
         <v>372588.1142635405</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11978,18 +11066,15 @@
         <v>372588.1142635405</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12014,18 +11099,15 @@
         <v>373747.1380635405</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12050,18 +11132,15 @@
         <v>336132.1240635405</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12086,18 +11165,15 @@
         <v>305397.4708635405</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12122,18 +11198,15 @@
         <v>266642.4708635405</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12158,18 +11231,15 @@
         <v>178843.7078635405</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12194,18 +11264,15 @@
         <v>178843.7078635405</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12232,16 +11299,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12268,16 +11332,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12304,16 +11365,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12340,16 +11398,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12376,16 +11431,13 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12410,18 +11462,15 @@
         <v>124326.4359635405</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12448,16 +11497,13 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12484,16 +11530,13 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>1</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12518,18 +11561,15 @@
         <v>56826.43596354048</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12554,18 +11594,15 @@
         <v>56826.43596354048</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12592,16 +11629,13 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12628,16 +11662,13 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12664,16 +11695,13 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12700,16 +11728,13 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12736,16 +11761,13 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12772,16 +11794,13 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12808,16 +11827,13 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -12844,16 +11860,13 @@
       <c r="H337" t="n">
         <v>0</v>
       </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -12880,16 +11893,13 @@
       <c r="H338" t="n">
         <v>0</v>
       </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -12916,16 +11926,13 @@
       <c r="H339" t="n">
         <v>0</v>
       </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -12952,18 +11959,15 @@
       <c r="H340" t="n">
         <v>0</v>
       </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-26 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-154822.90840477</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-154822.90840477</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>33.4</v>
@@ -521,7 +521,7 @@
         <v>-154822.90840477</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>33.4</v>
@@ -562,7 +562,7 @@
         <v>-154289.90840477</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>33.4</v>
@@ -603,7 +603,7 @@
         <v>-154289.90840477</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>33.5</v>
@@ -644,7 +644,7 @@
         <v>-154289.90840477</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>33.5</v>
@@ -685,7 +685,7 @@
         <v>-159250.58780477</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>33.5</v>
@@ -726,7 +726,7 @@
         <v>-274290.28460477</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>33.1</v>
@@ -767,7 +767,7 @@
         <v>-273110.8282047699</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>33</v>
@@ -808,7 +808,7 @@
         <v>-272448.5069047699</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>33.4</v>
@@ -849,7 +849,7 @@
         <v>-163349.8286899399</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>33.5</v>
@@ -890,9 +890,11 @@
         <v>-65221.37178993992</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>33.6</v>
+      </c>
       <c r="J13" t="n">
         <v>33.4</v>
       </c>
@@ -929,9 +931,11 @@
         <v>-65280.47888993992</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>33.7</v>
+      </c>
       <c r="J14" t="n">
         <v>33.4</v>
       </c>
@@ -970,7 +974,9 @@
       <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>33.6</v>
+      </c>
       <c r="J15" t="n">
         <v>33.4</v>
       </c>
@@ -1007,9 +1013,11 @@
         <v>-51518.47888993992</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>33.6</v>
+      </c>
       <c r="J16" t="n">
         <v>33.4</v>
       </c>
@@ -1046,7 +1054,7 @@
         <v>-51518.47888993992</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>33.7</v>
@@ -1087,7 +1095,7 @@
         <v>-138369.4788899399</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>33.7</v>
@@ -1128,7 +1136,7 @@
         <v>-138208.8501899399</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>33.1</v>
@@ -1169,7 +1177,7 @@
         <v>-138198.8501899399</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>33.4</v>
@@ -1210,7 +1218,7 @@
         <v>-135164.8501899399</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>33.7</v>
@@ -1251,7 +1259,7 @@
         <v>-135379.3605756899</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>33.8</v>
@@ -1292,7 +1300,7 @@
         <v>-135853.0849756899</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>33.7</v>
@@ -1333,7 +1341,7 @@
         <v>-85768.48447568994</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>33.6</v>
@@ -1374,7 +1382,7 @@
         <v>-85768.48447568994</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>33.8</v>
@@ -1415,9 +1423,11 @@
         <v>-85768.48447568994</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>33.8</v>
+      </c>
       <c r="J26" t="n">
         <v>33.4</v>
       </c>
@@ -1454,9 +1464,11 @@
         <v>-85778.48447568994</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>33.8</v>
+      </c>
       <c r="J27" t="n">
         <v>33.4</v>
       </c>
@@ -1493,9 +1505,11 @@
         <v>-76998.52887568994</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>33.6</v>
+      </c>
       <c r="J28" t="n">
         <v>33.4</v>
       </c>
@@ -1532,9 +1546,11 @@
         <v>-77009.52887568994</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>33.8</v>
+      </c>
       <c r="J29" t="n">
         <v>33.4</v>
       </c>
@@ -1571,9 +1587,11 @@
         <v>-76999.52887568994</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>33.6</v>
+      </c>
       <c r="J30" t="n">
         <v>33.4</v>
       </c>
@@ -1610,9 +1628,11 @@
         <v>-76999.52887568994</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>33.8</v>
+      </c>
       <c r="J31" t="n">
         <v>33.4</v>
       </c>
@@ -1727,9 +1747,11 @@
         <v>-75882.65027568994</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>33.6</v>
+      </c>
       <c r="J34" t="n">
         <v>33.4</v>
       </c>
@@ -1766,9 +1788,11 @@
         <v>-75882.65027568994</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>33.8</v>
+      </c>
       <c r="J35" t="n">
         <v>33.4</v>
       </c>
@@ -1805,9 +1829,11 @@
         <v>-74069.99547568994</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>33.8</v>
+      </c>
       <c r="J36" t="n">
         <v>33.4</v>
       </c>
@@ -2156,9 +2182,11 @@
         <v>-43949.99547568994</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>33.8</v>
+      </c>
       <c r="J45" t="n">
         <v>33.4</v>
       </c>
@@ -2273,11 +2301,9 @@
         <v>-49701.93827568994</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>33.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>33.4</v>
       </c>
@@ -2392,11 +2418,9 @@
         <v>578024.68086354</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>34.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>33.4</v>
       </c>
@@ -2511,7 +2535,7 @@
         <v>395844.8026635401</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
@@ -2519,15 +2543,13 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.075838323353294</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2555,8 +2577,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2588,8 +2616,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2618,11 +2652,17 @@
         <v>400754.8026635401</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2654,8 +2694,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2687,8 +2733,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2720,8 +2772,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2753,8 +2811,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2786,8 +2850,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2819,8 +2889,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2852,8 +2928,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2885,8 +2967,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2918,8 +3006,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2951,8 +3045,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2981,11 +3081,17 @@
         <v>376988.6773635401</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3014,11 +3120,17 @@
         <v>376988.6773635401</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3050,8 +3162,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3083,8 +3201,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3113,11 +3237,17 @@
         <v>357532.1173635401</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3149,8 +3279,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3182,8 +3318,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3215,8 +3357,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3248,8 +3396,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3281,8 +3435,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3314,8 +3474,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3347,8 +3513,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3380,8 +3552,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3413,8 +3591,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3446,8 +3630,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3479,8 +3669,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3512,8 +3708,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3545,8 +3747,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3578,8 +3786,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3611,8 +3825,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3644,8 +3864,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3677,8 +3903,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3710,8 +3942,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3743,8 +3981,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3776,8 +4020,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3809,8 +4059,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3842,8 +4098,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3872,15 +4134,23 @@
         <v>599823.8659635402</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>1.060868263473054</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3905,7 +4175,7 @@
         <v>599823.8659635402</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3938,7 +4208,7 @@
         <v>575163.6770635402</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3971,7 +4241,7 @@
         <v>571126.4768635402</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4004,7 +4274,7 @@
         <v>571229.4314635403</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4037,7 +4307,7 @@
         <v>567229.4314635403</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4070,7 +4340,7 @@
         <v>551180.8991635403</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4103,7 +4373,7 @@
         <v>551237.8791635403</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4136,7 +4406,7 @@
         <v>551237.8791635403</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4169,7 +4439,7 @@
         <v>551237.8791635403</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4235,7 +4505,7 @@
         <v>480019.3834635403</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4268,7 +4538,7 @@
         <v>480109.3834635403</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4301,7 +4571,7 @@
         <v>480069.3834635403</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4334,7 +4604,7 @@
         <v>480261.9667635403</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4367,7 +4637,7 @@
         <v>480261.9667635403</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4400,7 +4670,7 @@
         <v>480271.9667635403</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4433,7 +4703,7 @@
         <v>472932.0093635403</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4466,7 +4736,7 @@
         <v>472932.0093635403</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4499,7 +4769,7 @@
         <v>120195.8322635404</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4532,7 +4802,7 @@
         <v>120235.8322635404</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4565,7 +4835,7 @@
         <v>119680.8322635404</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4598,7 +4868,7 @@
         <v>119680.8322635404</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4631,7 +4901,7 @@
         <v>119680.8322635404</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4664,7 +4934,7 @@
         <v>119680.8322635404</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4697,7 +4967,7 @@
         <v>120238.8322635404</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4730,7 +5000,7 @@
         <v>140526.4220635404</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4763,7 +5033,7 @@
         <v>140559.0997635404</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4796,7 +5066,7 @@
         <v>140559.0997635404</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4829,7 +5099,7 @@
         <v>140559.0997635404</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4862,7 +5132,7 @@
         <v>179818.6050635404</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4895,7 +5165,7 @@
         <v>179818.6050635404</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4928,7 +5198,7 @@
         <v>179818.6050635404</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4961,7 +5231,7 @@
         <v>179286.0825635404</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4994,7 +5264,7 @@
         <v>131451.0441635404</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5027,7 +5297,7 @@
         <v>131451.0441635404</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5060,7 +5330,7 @@
         <v>131451.0441635404</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5093,7 +5363,7 @@
         <v>184419.8344635404</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5126,7 +5396,7 @@
         <v>184419.8344635404</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5159,7 +5429,7 @@
         <v>184419.8344635404</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5192,7 +5462,7 @@
         <v>184419.8344635404</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5225,7 +5495,7 @@
         <v>184429.8344635404</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5258,7 +5528,7 @@
         <v>177189.8659635404</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5291,7 +5561,7 @@
         <v>177189.8659635404</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5324,7 +5594,7 @@
         <v>177189.8659635404</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5357,7 +5627,7 @@
         <v>177189.8659635404</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5390,7 +5660,7 @@
         <v>176645.6750635404</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5423,7 +5693,7 @@
         <v>572944.1452635403</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5456,7 +5726,7 @@
         <v>579944.1452635403</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5489,7 +5759,7 @@
         <v>554553.6059635404</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5522,7 +5792,7 @@
         <v>554553.6059635404</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5555,7 +5825,7 @@
         <v>552739.5787635404</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5588,7 +5858,7 @@
         <v>552749.5787635404</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5621,7 +5891,7 @@
         <v>532434.0401635404</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5654,7 +5924,7 @@
         <v>533034.0401635404</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5687,7 +5957,7 @@
         <v>504011.3350635404</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5720,7 +5990,7 @@
         <v>534311.7253635403</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5753,7 +6023,7 @@
         <v>567301.2319635403</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5786,7 +6056,7 @@
         <v>524564.2340635404</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5819,7 +6089,7 @@
         <v>524564.2340635404</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5852,7 +6122,7 @@
         <v>524586.2340635404</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5885,7 +6155,7 @@
         <v>524398.2340635404</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5918,7 +6188,7 @@
         <v>524398.2340635404</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5951,7 +6221,7 @@
         <v>524398.2340635404</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5984,7 +6254,7 @@
         <v>524398.2340635404</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6017,7 +6287,7 @@
         <v>524408.2340635404</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6050,7 +6320,7 @@
         <v>426242.4058635404</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6083,7 +6353,7 @@
         <v>410118.1102635404</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6116,7 +6386,7 @@
         <v>411426.2991635404</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6149,7 +6419,7 @@
         <v>411426.2991635404</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6182,7 +6452,7 @@
         <v>340689.9220635404</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6215,7 +6485,7 @@
         <v>264475.7720635404</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6248,7 +6518,7 @@
         <v>264475.7720635404</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6281,7 +6551,7 @@
         <v>272256.7720635404</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6314,7 +6584,7 @@
         <v>272280.2720635404</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6347,7 +6617,7 @@
         <v>272280.2720635404</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6380,7 +6650,7 @@
         <v>217675.8734635404</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6413,7 +6683,7 @@
         <v>217675.8734635404</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6446,7 +6716,7 @@
         <v>217693.8734635404</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6479,7 +6749,7 @@
         <v>217693.8734635404</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6512,7 +6782,7 @@
         <v>217693.8734635404</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6545,7 +6815,7 @@
         <v>217693.8734635404</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6578,7 +6848,7 @@
         <v>217491.8734635404</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6611,7 +6881,7 @@
         <v>217491.8734635404</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6644,7 +6914,7 @@
         <v>288373.1839635404</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6677,7 +6947,7 @@
         <v>288373.1839635404</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6710,7 +6980,7 @@
         <v>288373.1839635404</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6743,7 +7013,7 @@
         <v>279973.6495635404</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6776,7 +7046,7 @@
         <v>279530.9457635404</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6809,7 +7079,7 @@
         <v>229530.9457635404</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6842,7 +7112,7 @@
         <v>229540.9457635404</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6875,7 +7145,7 @@
         <v>229355.9457635404</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6908,7 +7178,7 @@
         <v>229365.9457635404</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6941,7 +7211,7 @@
         <v>229788.9457635404</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6974,7 +7244,7 @@
         <v>214516.6522635404</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7007,7 +7277,7 @@
         <v>214526.6522635404</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7040,7 +7310,7 @@
         <v>193697.5450635404</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7073,7 +7343,7 @@
         <v>203882.2488635404</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7106,7 +7376,7 @@
         <v>203906.3345635404</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7139,7 +7409,7 @@
         <v>203906.3345635404</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7172,7 +7442,7 @@
         <v>202374.3886635404</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7205,7 +7475,7 @@
         <v>202374.3886635404</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7238,7 +7508,7 @@
         <v>202374.3886635404</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7271,7 +7541,7 @@
         <v>202374.3886635404</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7304,7 +7574,7 @@
         <v>202374.3886635404</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7337,7 +7607,7 @@
         <v>201966.3886635404</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7370,7 +7640,7 @@
         <v>204401.3886635404</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7403,7 +7673,7 @@
         <v>104401.3886635404</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7436,7 +7706,7 @@
         <v>105401.3886635404</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7469,7 +7739,7 @@
         <v>105401.3886635404</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7502,7 +7772,7 @@
         <v>105390.3886635404</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7535,7 +7805,7 @@
         <v>105420.3886635404</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7568,7 +7838,7 @@
         <v>105420.3886635404</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7601,7 +7871,7 @@
         <v>105381.4861635404</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7634,7 +7904,7 @@
         <v>105391.4861635404</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7667,7 +7937,7 @@
         <v>200996.8992635404</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7700,7 +7970,7 @@
         <v>200996.8992635404</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7733,7 +8003,7 @@
         <v>198996.8992635404</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7766,7 +8036,7 @@
         <v>198996.8992635404</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7799,7 +8069,7 @@
         <v>200156.9708635404</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7832,7 +8102,7 @@
         <v>200156.9708635404</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7865,7 +8135,7 @@
         <v>222239.8861635404</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7898,7 +8168,7 @@
         <v>222239.8861635404</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7931,7 +8201,7 @@
         <v>222239.8861635404</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8426,7 +8696,7 @@
         <v>199937.9192635404</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8525,7 +8795,7 @@
         <v>199937.9192635404</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8558,7 +8828,7 @@
         <v>199937.9192635404</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8591,7 +8861,7 @@
         <v>199937.9192635404</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8624,7 +8894,7 @@
         <v>199937.9192635404</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8657,7 +8927,7 @@
         <v>199937.9192635404</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -10307,7 +10577,7 @@
         <v>180161.4456635404</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10340,7 +10610,7 @@
         <v>180161.4456635404</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10406,7 +10676,7 @@
         <v>180161.4456635404</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10439,7 +10709,7 @@
         <v>180161.4456635404</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10472,7 +10742,7 @@
         <v>180161.4456635404</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10505,7 +10775,7 @@
         <v>180161.4456635404</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10538,7 +10808,7 @@
         <v>440998.3418635405</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10571,7 +10841,7 @@
         <v>442997.8834635405</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10604,7 +10874,7 @@
         <v>444997.8834635405</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10637,7 +10907,7 @@
         <v>444997.8834635405</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10670,7 +10940,7 @@
         <v>442663.8834635405</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10703,7 +10973,7 @@
         <v>382663.8834635405</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10736,7 +11006,7 @@
         <v>382673.8834635405</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10769,7 +11039,7 @@
         <v>382673.8834635405</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10802,7 +11072,7 @@
         <v>382673.8834635405</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10835,7 +11105,7 @@
         <v>382613.8834635405</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10868,7 +11138,7 @@
         <v>382613.8834635405</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10901,7 +11171,7 @@
         <v>382613.8834635405</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10934,7 +11204,7 @@
         <v>372832.1142635405</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10967,7 +11237,7 @@
         <v>372832.1142635405</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11000,7 +11270,7 @@
         <v>372832.1142635405</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11033,7 +11303,7 @@
         <v>372588.1142635405</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11066,7 +11336,7 @@
         <v>372588.1142635405</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11099,7 +11369,7 @@
         <v>373747.1380635405</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11132,7 +11402,7 @@
         <v>336132.1240635405</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11165,7 +11435,7 @@
         <v>305397.4708635405</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11198,7 +11468,7 @@
         <v>266642.4708635405</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11231,7 +11501,7 @@
         <v>178843.7078635405</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11264,7 +11534,7 @@
         <v>178843.7078635405</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11297,7 +11567,7 @@
         <v>178843.7078635405</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11330,7 +11600,7 @@
         <v>178843.7078635405</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11363,7 +11633,7 @@
         <v>178843.7078635405</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11396,7 +11666,7 @@
         <v>178843.7078635405</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11429,7 +11699,7 @@
         <v>115979.3084635405</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11462,7 +11732,7 @@
         <v>124326.4359635405</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11495,7 +11765,7 @@
         <v>126826.4359635405</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11528,7 +11798,7 @@
         <v>56826.43596354048</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11561,7 +11831,7 @@
         <v>56826.43596354048</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11594,7 +11864,7 @@
         <v>56826.43596354048</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11627,7 +11897,7 @@
         <v>56836.43596354048</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11968,6 +12238,6 @@
       <c r="M340" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-26 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -603,11 +603,9 @@
         <v>-154289.90840477</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>33.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
         <v>33.4</v>
       </c>
@@ -644,11 +642,9 @@
         <v>-154289.90840477</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>33.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>33.4</v>
       </c>
@@ -685,11 +681,9 @@
         <v>-159250.58780477</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>33.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>33.4</v>
       </c>
@@ -726,11 +720,9 @@
         <v>-274290.28460477</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>33.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>33.4</v>
       </c>
@@ -849,11 +841,9 @@
         <v>-163349.8286899399</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>33.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>33.4</v>
       </c>
@@ -890,11 +880,9 @@
         <v>-65221.37178993992</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>33.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>33.4</v>
       </c>
@@ -931,11 +919,9 @@
         <v>-65280.47888993992</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>33.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>33.4</v>
       </c>
@@ -972,11 +958,9 @@
         <v>-65280.47888993992</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>33.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>33.4</v>
       </c>
@@ -1013,11 +997,9 @@
         <v>-51518.47888993992</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>33.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>33.4</v>
       </c>
@@ -1054,11 +1036,9 @@
         <v>-51518.47888993992</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>33.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>33.4</v>
       </c>
@@ -1095,11 +1075,9 @@
         <v>-138369.4788899399</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>33.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>33.4</v>
       </c>
@@ -1136,11 +1114,9 @@
         <v>-138208.8501899399</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>33.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>33.4</v>
       </c>
@@ -1177,11 +1153,9 @@
         <v>-138198.8501899399</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>33.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>33.4</v>
       </c>
@@ -1218,11 +1192,9 @@
         <v>-135164.8501899399</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>33.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>33.4</v>
       </c>
@@ -1259,11 +1231,9 @@
         <v>-135379.3605756899</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>33.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>33.4</v>
       </c>
@@ -1300,11 +1270,9 @@
         <v>-135853.0849756899</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>33.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>33.4</v>
       </c>
@@ -1341,11 +1309,9 @@
         <v>-85768.48447568994</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>33.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>33.4</v>
       </c>
@@ -1382,11 +1348,9 @@
         <v>-85768.48447568994</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>33.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>33.4</v>
       </c>
@@ -1423,11 +1387,9 @@
         <v>-85768.48447568994</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>33.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>33.4</v>
       </c>
@@ -1464,11 +1426,9 @@
         <v>-85778.48447568994</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>33.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>33.4</v>
       </c>
@@ -1505,11 +1465,9 @@
         <v>-76998.52887568994</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>33.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>33.4</v>
       </c>
@@ -1546,11 +1504,9 @@
         <v>-77009.52887568994</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>33.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>33.4</v>
       </c>
@@ -1587,11 +1543,9 @@
         <v>-76999.52887568994</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>33.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>33.4</v>
       </c>
@@ -1628,11 +1582,9 @@
         <v>-76999.52887568994</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>33.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>33.4</v>
       </c>
@@ -1747,11 +1699,9 @@
         <v>-75882.65027568994</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>33.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>33.4</v>
       </c>
@@ -1788,11 +1738,9 @@
         <v>-75882.65027568994</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>33.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>33.4</v>
       </c>
@@ -1829,11 +1777,9 @@
         <v>-74069.99547568994</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>33.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>33.4</v>
       </c>
@@ -2182,11 +2128,9 @@
         <v>-43949.99547568994</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>33.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>33.4</v>
       </c>
@@ -3393,7 +3337,7 @@
         <v>354853.4327635401</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
@@ -3401,11 +3345,11 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>1.045898203592815</v>
       </c>
       <c r="M76" t="inlineStr"/>
     </row>
@@ -3432,17 +3376,11 @@
         <v>354853.4327635401</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3471,17 +3409,11 @@
         <v>354853.4327635401</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3513,14 +3445,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3552,14 +3478,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3591,14 +3511,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3627,17 +3541,11 @@
         <v>388744.4217635401</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3666,17 +3574,11 @@
         <v>388923.2881635401</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3705,17 +3607,11 @@
         <v>379323.1468635401</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3744,17 +3640,11 @@
         <v>386523.1468635401</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3783,17 +3673,11 @@
         <v>386523.1468635401</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3825,14 +3709,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3864,14 +3742,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3903,14 +3775,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3942,14 +3808,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3981,14 +3841,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4020,14 +3874,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4059,14 +3907,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4098,14 +3940,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4134,23 +3970,15 @@
         <v>599823.8659635402</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>1.060868263473054</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4175,7 +4003,7 @@
         <v>599823.8659635402</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4208,7 +4036,7 @@
         <v>575163.6770635402</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4241,7 +4069,7 @@
         <v>571126.4768635402</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4274,7 +4102,7 @@
         <v>571229.4314635403</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4307,7 +4135,7 @@
         <v>567229.4314635403</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4340,7 +4168,7 @@
         <v>551180.8991635403</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4373,7 +4201,7 @@
         <v>551237.8791635403</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4406,7 +4234,7 @@
         <v>551237.8791635403</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4439,7 +4267,7 @@
         <v>551237.8791635403</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4505,7 +4333,7 @@
         <v>480019.3834635403</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4538,7 +4366,7 @@
         <v>480109.3834635403</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4571,7 +4399,7 @@
         <v>480069.3834635403</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4604,7 +4432,7 @@
         <v>480261.9667635403</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4637,7 +4465,7 @@
         <v>480261.9667635403</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4670,7 +4498,7 @@
         <v>480271.9667635403</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4703,7 +4531,7 @@
         <v>472932.0093635403</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4736,7 +4564,7 @@
         <v>472932.0093635403</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4769,7 +4597,7 @@
         <v>120195.8322635404</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4802,7 +4630,7 @@
         <v>120235.8322635404</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4835,7 +4663,7 @@
         <v>119680.8322635404</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4868,7 +4696,7 @@
         <v>119680.8322635404</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4901,7 +4729,7 @@
         <v>119680.8322635404</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4934,7 +4762,7 @@
         <v>119680.8322635404</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4967,7 +4795,7 @@
         <v>120238.8322635404</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5000,7 +4828,7 @@
         <v>140526.4220635404</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5033,7 +4861,7 @@
         <v>140559.0997635404</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5066,7 +4894,7 @@
         <v>140559.0997635404</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5099,7 +4927,7 @@
         <v>140559.0997635404</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5132,7 +4960,7 @@
         <v>179818.6050635404</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5165,7 +4993,7 @@
         <v>179818.6050635404</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5198,7 +5026,7 @@
         <v>179818.6050635404</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5231,7 +5059,7 @@
         <v>179286.0825635404</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5264,7 +5092,7 @@
         <v>131451.0441635404</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5297,7 +5125,7 @@
         <v>131451.0441635404</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5330,7 +5158,7 @@
         <v>131451.0441635404</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5363,7 +5191,7 @@
         <v>184419.8344635404</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5396,7 +5224,7 @@
         <v>184419.8344635404</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5429,7 +5257,7 @@
         <v>184419.8344635404</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5462,7 +5290,7 @@
         <v>184419.8344635404</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5495,7 +5323,7 @@
         <v>184429.8344635404</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5528,7 +5356,7 @@
         <v>177189.8659635404</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5561,7 +5389,7 @@
         <v>177189.8659635404</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5594,7 +5422,7 @@
         <v>177189.8659635404</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5627,7 +5455,7 @@
         <v>177189.8659635404</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5660,7 +5488,7 @@
         <v>176645.6750635404</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5693,7 +5521,7 @@
         <v>572944.1452635403</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5726,7 +5554,7 @@
         <v>579944.1452635403</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5759,7 +5587,7 @@
         <v>554553.6059635404</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5792,7 +5620,7 @@
         <v>554553.6059635404</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5825,7 +5653,7 @@
         <v>552739.5787635404</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5858,7 +5686,7 @@
         <v>552749.5787635404</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5891,7 +5719,7 @@
         <v>532434.0401635404</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5924,7 +5752,7 @@
         <v>533034.0401635404</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5957,7 +5785,7 @@
         <v>504011.3350635404</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5990,7 +5818,7 @@
         <v>534311.7253635403</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6023,7 +5851,7 @@
         <v>567301.2319635403</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6056,7 +5884,7 @@
         <v>524564.2340635404</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6089,7 +5917,7 @@
         <v>524564.2340635404</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6122,7 +5950,7 @@
         <v>524586.2340635404</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6155,7 +5983,7 @@
         <v>524398.2340635404</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6188,7 +6016,7 @@
         <v>524398.2340635404</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6221,7 +6049,7 @@
         <v>524398.2340635404</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6254,7 +6082,7 @@
         <v>524398.2340635404</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6287,7 +6115,7 @@
         <v>524408.2340635404</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6320,7 +6148,7 @@
         <v>426242.4058635404</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6353,7 +6181,7 @@
         <v>410118.1102635404</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6386,7 +6214,7 @@
         <v>411426.2991635404</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6419,7 +6247,7 @@
         <v>411426.2991635404</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6452,7 +6280,7 @@
         <v>340689.9220635404</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6485,7 +6313,7 @@
         <v>264475.7720635404</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6518,7 +6346,7 @@
         <v>264475.7720635404</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6551,7 +6379,7 @@
         <v>272256.7720635404</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6584,7 +6412,7 @@
         <v>272280.2720635404</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6617,7 +6445,7 @@
         <v>272280.2720635404</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6650,7 +6478,7 @@
         <v>217675.8734635404</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6683,7 +6511,7 @@
         <v>217675.8734635404</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6716,7 +6544,7 @@
         <v>217693.8734635404</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6749,7 +6577,7 @@
         <v>217693.8734635404</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6782,7 +6610,7 @@
         <v>217693.8734635404</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6815,7 +6643,7 @@
         <v>217693.8734635404</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6848,7 +6676,7 @@
         <v>217491.8734635404</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6881,7 +6709,7 @@
         <v>217491.8734635404</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6914,7 +6742,7 @@
         <v>288373.1839635404</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6947,7 +6775,7 @@
         <v>288373.1839635404</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6980,7 +6808,7 @@
         <v>288373.1839635404</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7013,7 +6841,7 @@
         <v>279973.6495635404</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7046,7 +6874,7 @@
         <v>279530.9457635404</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7079,7 +6907,7 @@
         <v>229530.9457635404</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7112,7 +6940,7 @@
         <v>229540.9457635404</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7145,7 +6973,7 @@
         <v>229355.9457635404</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7178,7 +7006,7 @@
         <v>229365.9457635404</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7211,7 +7039,7 @@
         <v>229788.9457635404</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7244,7 +7072,7 @@
         <v>214516.6522635404</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7277,7 +7105,7 @@
         <v>214526.6522635404</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7310,7 +7138,7 @@
         <v>193697.5450635404</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7343,7 +7171,7 @@
         <v>203882.2488635404</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7376,7 +7204,7 @@
         <v>203906.3345635404</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7409,7 +7237,7 @@
         <v>203906.3345635404</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7442,7 +7270,7 @@
         <v>202374.3886635404</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7475,7 +7303,7 @@
         <v>202374.3886635404</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7508,7 +7336,7 @@
         <v>202374.3886635404</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7541,7 +7369,7 @@
         <v>202374.3886635404</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7574,7 +7402,7 @@
         <v>202374.3886635404</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7607,7 +7435,7 @@
         <v>201966.3886635404</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7640,7 +7468,7 @@
         <v>204401.3886635404</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7673,7 +7501,7 @@
         <v>104401.3886635404</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7706,7 +7534,7 @@
         <v>105401.3886635404</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7739,7 +7567,7 @@
         <v>105401.3886635404</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7772,7 +7600,7 @@
         <v>105390.3886635404</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7805,7 +7633,7 @@
         <v>105420.3886635404</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7838,7 +7666,7 @@
         <v>105420.3886635404</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7871,7 +7699,7 @@
         <v>105381.4861635404</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7904,7 +7732,7 @@
         <v>105391.4861635404</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7937,7 +7765,7 @@
         <v>200996.8992635404</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7970,7 +7798,7 @@
         <v>200996.8992635404</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8003,7 +7831,7 @@
         <v>198996.8992635404</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -10874,7 +10702,7 @@
         <v>444997.8834635405</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10907,7 +10735,7 @@
         <v>444997.8834635405</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10940,7 +10768,7 @@
         <v>442663.8834635405</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10973,7 +10801,7 @@
         <v>382663.8834635405</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11006,7 +10834,7 @@
         <v>382673.8834635405</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11039,7 +10867,7 @@
         <v>382673.8834635405</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11072,7 +10900,7 @@
         <v>382673.8834635405</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11105,7 +10933,7 @@
         <v>382613.8834635405</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11138,7 +10966,7 @@
         <v>382613.8834635405</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11171,7 +10999,7 @@
         <v>382613.8834635405</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11204,7 +11032,7 @@
         <v>372832.1142635405</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11237,7 +11065,7 @@
         <v>372832.1142635405</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11270,7 +11098,7 @@
         <v>372832.1142635405</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11303,7 +11131,7 @@
         <v>372588.1142635405</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11336,7 +11164,7 @@
         <v>372588.1142635405</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11369,7 +11197,7 @@
         <v>373747.1380635405</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11402,7 +11230,7 @@
         <v>336132.1240635405</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11435,7 +11263,7 @@
         <v>305397.4708635405</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11468,7 +11296,7 @@
         <v>266642.4708635405</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11501,7 +11329,7 @@
         <v>178843.7078635405</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11534,7 +11362,7 @@
         <v>178843.7078635405</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11567,7 +11395,7 @@
         <v>178843.7078635405</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11600,7 +11428,7 @@
         <v>178843.7078635405</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11633,7 +11461,7 @@
         <v>178843.7078635405</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11666,7 +11494,7 @@
         <v>178843.7078635405</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11699,7 +11527,7 @@
         <v>115979.3084635405</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11732,7 +11560,7 @@
         <v>124326.4359635405</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11765,7 +11593,7 @@
         <v>126826.4359635405</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11798,7 +11626,7 @@
         <v>56826.43596354048</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11831,7 +11659,7 @@
         <v>56826.43596354048</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11864,7 +11692,7 @@
         <v>56826.43596354048</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11897,7 +11725,7 @@
         <v>56836.43596354048</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12238,6 +12066,6 @@
       <c r="M340" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-26 BackTest HDAC.xlsx
@@ -603,9 +603,11 @@
         <v>-154289.90840477</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>33.5</v>
+      </c>
       <c r="J6" t="n">
         <v>33.4</v>
       </c>
@@ -642,9 +644,11 @@
         <v>-154289.90840477</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>33.5</v>
+      </c>
       <c r="J7" t="n">
         <v>33.4</v>
       </c>
@@ -681,9 +685,11 @@
         <v>-159250.58780477</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>33.5</v>
+      </c>
       <c r="J8" t="n">
         <v>33.4</v>
       </c>
@@ -720,9 +726,11 @@
         <v>-274290.28460477</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>33.1</v>
+      </c>
       <c r="J9" t="n">
         <v>33.4</v>
       </c>
@@ -841,9 +849,11 @@
         <v>-163349.8286899399</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>33.5</v>
+      </c>
       <c r="J12" t="n">
         <v>33.4</v>
       </c>
@@ -880,9 +890,11 @@
         <v>-65221.37178993992</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>33.6</v>
+      </c>
       <c r="J13" t="n">
         <v>33.4</v>
       </c>
@@ -919,9 +931,11 @@
         <v>-65280.47888993992</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>33.7</v>
+      </c>
       <c r="J14" t="n">
         <v>33.4</v>
       </c>
@@ -958,9 +972,11 @@
         <v>-65280.47888993992</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>33.6</v>
+      </c>
       <c r="J15" t="n">
         <v>33.4</v>
       </c>
@@ -997,9 +1013,11 @@
         <v>-51518.47888993992</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>33.6</v>
+      </c>
       <c r="J16" t="n">
         <v>33.4</v>
       </c>
@@ -1036,9 +1054,11 @@
         <v>-51518.47888993992</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>33.7</v>
+      </c>
       <c r="J17" t="n">
         <v>33.4</v>
       </c>
@@ -1075,9 +1095,11 @@
         <v>-138369.4788899399</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>33.7</v>
+      </c>
       <c r="J18" t="n">
         <v>33.4</v>
       </c>
@@ -1114,9 +1136,11 @@
         <v>-138208.8501899399</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>33.1</v>
+      </c>
       <c r="J19" t="n">
         <v>33.4</v>
       </c>
@@ -1153,9 +1177,11 @@
         <v>-138198.8501899399</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>33.4</v>
+      </c>
       <c r="J20" t="n">
         <v>33.4</v>
       </c>
@@ -2440,7 +2466,7 @@
         <v>395290.7866635401</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
@@ -2448,11 +2474,11 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>1.000988023952096</v>
       </c>
       <c r="M53" t="inlineStr"/>
     </row>
@@ -2482,14 +2508,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2521,14 +2541,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2560,14 +2574,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2599,14 +2607,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2638,14 +2640,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2677,14 +2673,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2716,14 +2706,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2755,14 +2739,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2794,14 +2772,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2833,14 +2805,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2872,14 +2838,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2911,14 +2871,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2950,14 +2904,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2989,14 +2937,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3028,14 +2970,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3067,14 +3003,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3106,14 +3036,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3145,14 +3069,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3184,14 +3102,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3223,14 +3135,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3262,14 +3168,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3301,14 +3201,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3337,19 +3231,13 @@
         <v>354853.4327635401</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>1.045898203592815</v>
+        <v>1</v>
       </c>
       <c r="M76" t="inlineStr"/>
     </row>
@@ -3376,7 +3264,7 @@
         <v>354853.4327635401</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3409,7 +3297,7 @@
         <v>354853.4327635401</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3541,7 +3429,7 @@
         <v>388744.4217635401</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3574,7 +3462,7 @@
         <v>388923.2881635401</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3607,7 +3495,7 @@
         <v>379323.1468635401</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3640,7 +3528,7 @@
         <v>386523.1468635401</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3673,7 +3561,7 @@
         <v>386523.1468635401</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -10702,7 +10590,7 @@
         <v>444997.8834635405</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10735,7 +10623,7 @@
         <v>444997.8834635405</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10768,7 +10656,7 @@
         <v>442663.8834635405</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10801,7 +10689,7 @@
         <v>382663.8834635405</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10834,7 +10722,7 @@
         <v>382673.8834635405</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10867,7 +10755,7 @@
         <v>382673.8834635405</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10900,7 +10788,7 @@
         <v>382673.8834635405</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10933,7 +10821,7 @@
         <v>382613.8834635405</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10999,7 +10887,7 @@
         <v>382613.8834635405</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11032,7 +10920,7 @@
         <v>372832.1142635405</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
